--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1683-2026</t>
+          <t>A 9956-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46034.58318287037</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>29.2</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -988,229 +988,229 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 1683-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46034.58318287037</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Talltita</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 9956-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44753</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,8 +1326,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>27.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1361,45 +1366,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44405</v>
+        <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1411,13 +1416,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>16.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1441,59 +1441,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45019</v>
+        <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1505,23 +1501,18 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>27.3</v>
+        <v>12.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1545,45 +1536,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45632</v>
+        <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1591,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1630,45 +1625,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45770</v>
+        <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,14 +1675,19 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>16.4</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,8 +1765,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1775,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1793,42 +1798,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,14 +1930,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,16 +1949,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,14 +2337,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 56733-2021</t>
+          <t>A 74356-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44481</v>
+        <v>44559.58675925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 74356-2021</t>
+          <t>A 56733-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44559.58675925926</v>
+        <v>44481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44564</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3475,14 +3475,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 41097-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44746</v>
+        <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,13 +3494,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3537,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41097-2021</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44422</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3557,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3594,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3614,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3651,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45071</v>
+        <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,13 +3665,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3713,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3728,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3775,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3790,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3837,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3856,13 +3846,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3899,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,8 +3903,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>16.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3956,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45446</v>
+        <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3966,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4013,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4034,11 +4024,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>26.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4075,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45902</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4100,7 +4090,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4137,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45477</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4162,7 +4152,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11.4</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4199,14 +4189,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45439</v>
+        <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,8 +4208,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4256,14 +4251,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>44739</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4276,7 +4271,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4313,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45019</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,13 +4327,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>26.3</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4375,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>44861</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4385,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4432,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44919</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4451,8 +4441,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4489,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44858</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4508,8 +4503,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4546,14 +4546,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45835</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4608,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4629,11 +4629,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,8 +4689,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>22.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4727,14 +4732,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4747,7 +4752,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4784,14 +4789,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4809,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4841,14 +4846,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4860,8 +4865,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4898,14 +4908,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4917,8 +4927,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4955,14 +4970,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45442</v>
+        <v>45751.683125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4974,8 +4989,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5012,14 +5032,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45446</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,13 +5051,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5074,14 +5089,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45943</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,11 +5110,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5136,14 +5151,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45902</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,8 +5170,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5193,14 +5213,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5218,7 +5238,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5255,14 +5275,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5280,7 +5300,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5317,14 +5337,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5338,11 +5358,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5379,14 +5399,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,11 +5420,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>17.7</v>
+        <v>6.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5441,14 +5461,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45071</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5486,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5503,14 +5523,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45071</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,13 +5542,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5565,14 +5580,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44994</v>
+        <v>45635</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,13 +5599,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5627,14 +5637,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44998</v>
+        <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5646,13 +5656,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5689,14 +5694,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5708,13 +5713,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5751,14 +5751,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45503</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5808,14 +5808,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45972</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5865,14 +5865,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44481</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5884,8 +5884,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5922,14 +5927,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45125</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5947,7 +5952,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>11.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5984,14 +5989,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,8 +6008,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6041,14 +6051,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6062,11 +6072,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11.5</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6103,14 +6113,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6122,13 +6132,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6165,14 +6170,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45160</v>
+        <v>45839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6184,8 +6189,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6222,14 +6232,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6241,13 +6251,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6284,14 +6289,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45131</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6303,8 +6308,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6341,14 +6351,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45635</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6360,8 +6370,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6398,14 +6413,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44739</v>
+        <v>45840</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6417,8 +6432,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6455,14 +6475,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45769</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6476,11 +6496,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>10.1</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6517,14 +6537,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45842.533125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6542,7 +6562,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6579,14 +6599,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44861</v>
+        <v>45943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6598,8 +6618,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6636,14 +6661,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44971</v>
+        <v>45846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,8 +6680,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6693,14 +6723,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45737</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,13 +6742,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6755,14 +6780,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6774,13 +6799,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6817,14 +6837,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6836,8 +6856,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>8.4</v>
+        <v>17.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6874,14 +6899,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45727</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6899,7 +6924,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6936,14 +6961,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6956,7 +6981,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6993,14 +7018,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7014,11 +7039,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7055,14 +7080,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7075,7 +7100,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7112,14 +7137,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45274</v>
+        <v>45972</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7132,7 +7157,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7169,14 +7194,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44364</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7188,8 +7213,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7226,14 +7256,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44991</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,13 +7275,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7288,14 +7313,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45274</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7345,14 +7370,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45600</v>
+        <v>45835</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7366,11 +7391,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7407,14 +7432,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45112</v>
+        <v>45600</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7426,8 +7451,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7464,14 +7494,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45390</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7483,13 +7513,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7526,14 +7551,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7545,8 +7570,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7583,14 +7613,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45686</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7603,7 +7633,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7640,14 +7670,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7659,8 +7689,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7697,14 +7732,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7718,11 +7753,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7759,14 +7794,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7780,11 +7815,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7821,14 +7856,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7840,13 +7875,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>14.6</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7883,14 +7913,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45737</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,11 +7934,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7945,14 +7975,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45769</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7964,8 +7994,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8002,14 +8037,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45784</v>
+        <v>45769</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8023,11 +8058,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8064,14 +8099,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45632</v>
+        <v>45769</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8119,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8121,14 +8156,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8176,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8178,14 +8213,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44998</v>
+        <v>45442</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8197,13 +8232,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8240,14 +8270,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8259,13 +8289,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8302,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8327,7 +8352,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8364,14 +8389,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45789</v>
+        <v>44998</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8383,8 +8408,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8421,14 +8451,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>44991</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8440,8 +8470,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8478,14 +8513,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45635</v>
+        <v>45160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8498,7 +8533,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8535,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8554,8 +8589,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8592,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8617,7 +8657,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8654,14 +8694,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8679,7 +8719,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8716,14 +8756,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8735,13 +8775,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8778,14 +8813,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,13 +8832,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8840,14 +8870,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,13 +8889,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>22.6</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8902,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8923,11 +8948,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8964,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,11 +9010,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9026,14 +9051,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9045,13 +9070,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9088,14 +9108,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9109,11 +9129,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6</v>
+        <v>14.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9150,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>44994</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,11 +9191,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9212,14 +9232,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9237,7 +9257,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9274,14 +9294,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9319,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9336,14 +9356,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>44971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9355,13 +9375,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9398,14 +9413,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9418,7 +9433,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9455,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9474,13 +9489,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9517,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>44998</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9538,11 +9548,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9579,14 +9589,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45840</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9598,13 +9608,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9641,14 +9646,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9666,7 +9671,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9703,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45839</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9728,7 +9733,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.1</v>
+        <v>18</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9765,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45784</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9786,11 +9791,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9827,14 +9832,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45846</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,13 +9851,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45635</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45673</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45128.4874537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44739</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45548.63049768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44861</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45888.36605324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45751.68105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45751.683125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45446</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45821.51579861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45902</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45824.51702546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>45635</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>45834.51931712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45834.51887731482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>45835.37936342593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45834.50034722222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45733.83596064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45840.64615740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45736.44006944444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45840</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45840.64806712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45842.533125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>45846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45819.37296296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45951.66190972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45952.33346064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45222.46934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45247.43503472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45972</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>45274</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>45835</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>45600</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>45627.79015046296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>46042.65331018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45751.67940972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45722.55008101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45737</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>46010.6115162037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45769</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>45769</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>45789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>45442</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44953.56076388889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44998</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44991</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45748.66613425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45757.79734953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45627.7980787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45491.31465277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45193.92085648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45769.43887731482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44994</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45751.68385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44974.62284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>44998</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44764.96467592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45785.51381944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45785.51457175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45784</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45627.83027777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45635</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45673</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45128.4874537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44739</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45548.63049768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44861</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45888.36605324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45751.68105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45751.683125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45446</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45821.51579861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45902</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45824.51702546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>45635</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>45834.51931712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45834.51887731482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>45835.37936342593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45834.50034722222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45733.83596064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45840.64615740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45736.44006944444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45840</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45840.64806712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45842.533125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>45846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45819.37296296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45951.66190972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45952.33346064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45222.46934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45247.43503472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45972</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>45274</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>45835</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>45600</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>45627.79015046296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>46042.65331018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45751.67940972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45722.55008101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45737</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>46010.6115162037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45769</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>45769</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>45789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>45442</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44953.56076388889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44998</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44991</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45748.66613425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45757.79734953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45627.7980787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45491.31465277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45193.92085648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45769.43887731482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44994</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45751.68385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44974.62284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>44998</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44764.96467592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45785.51381944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45785.51457175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45784</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45627.83027777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45635</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 9956-2022</t>
+          <t>A 1683-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44621</v>
+        <v>46034.58318287037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,17 +970,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>29.2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -988,229 +988,229 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Talltita</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 9956-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 1683-2026</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46034.58318287037</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Talltita</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>44405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,24 +1328,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>27.3</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1356,55 +1356,59 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45770</v>
+        <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1416,14 +1420,19 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>16.4</v>
+        <v>27.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1451,45 +1460,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45104</v>
+        <v>45632</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1502,16 +1511,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1526,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1536,35 +1545,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -1578,7 +1583,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,14 +1661,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,19 +1680,14 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>16.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44405</v>
+        <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,13 +1765,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>12.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1780,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1798,42 +1793,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1847,7 +1842,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,14 +1925,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45632</v>
+        <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,11 +1944,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,14 +2337,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 74356-2021</t>
+          <t>A 56733-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44559.58675925926</v>
+        <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 56733-2021</t>
+          <t>A 74356-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44481</v>
+        <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44564</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45439</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,8 +3608,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>26.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3651,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45686</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3671,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3708,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45071</v>
+        <v>44919</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,13 +3727,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45071</v>
+        <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,13 +3784,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3827,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3842,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3879,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3903,13 +3898,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>16.8</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3936,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44364</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3963,6 +3953,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4003,14 +3998,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45019</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,11 +4019,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>26.3</v>
+        <v>4.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4065,14 +4060,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4086,11 +4081,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4127,14 +4122,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4147,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4189,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45727</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4210,11 +4205,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4251,14 +4246,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44739</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4270,8 +4265,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4308,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44861</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4384,8 +4384,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4427,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4447,7 +4452,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4489,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45071</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4514,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4546,14 +4551,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45071</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4576,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4613,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4633,7 +4638,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>11.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4670,14 +4675,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,13 +4694,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>22.6</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4751,8 +4751,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4789,14 +4794,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45131</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4814,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4846,14 +4851,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45477</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4876,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>11.4</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4908,14 +4913,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4938,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4970,14 +4975,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45446</v>
+        <v>44994</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,8 +5056,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5089,14 +5099,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5114,7 +5124,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5151,14 +5161,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45902</v>
+        <v>45839</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,11 +5182,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5213,14 +5223,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45842.533125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5248,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5275,14 +5285,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>44998</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5296,11 +5306,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5337,14 +5347,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45846</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5362,7 +5372,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5399,14 +5409,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45902</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5420,11 +5430,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5461,14 +5471,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5480,13 +5490,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5523,14 +5528,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45477</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5542,8 +5547,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5580,14 +5590,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45635</v>
+        <v>45503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5600,7 +5610,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5637,14 +5647,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44919</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5656,8 +5666,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5694,14 +5709,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,8 +5728,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5751,14 +5771,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45131</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5771,7 +5791,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5808,14 +5828,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5828,7 +5848,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5865,14 +5885,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5884,13 +5904,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5927,14 +5942,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>44739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,13 +5961,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5989,14 +5999,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6008,13 +6018,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6051,14 +6056,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44746</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,11 +6077,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>44861</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6138,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6170,14 +6175,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45839</v>
+        <v>44971</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6189,13 +6194,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>44746</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6251,8 +6251,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6289,14 +6294,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45943</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6310,11 +6315,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6351,14 +6356,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45071</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6376,7 +6381,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6413,14 +6418,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45840</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6438,7 +6443,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6475,14 +6480,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6500,7 +6505,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6537,14 +6542,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45751.683125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6562,7 +6567,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6599,14 +6604,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45943</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6624,7 +6629,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6661,14 +6666,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45846</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,11 +6687,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>17.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6723,14 +6728,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6743,7 +6748,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6780,14 +6785,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45112</v>
+        <v>45446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6800,7 +6805,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6837,14 +6842,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6862,7 +6867,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>17.7</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6899,14 +6904,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45972</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,13 +6923,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>44481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -7080,14 +7080,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7099,8 +7099,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7137,14 +7142,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45972</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7157,7 +7162,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7194,14 +7199,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7219,7 +7224,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>16.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7263,7 +7268,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,14 +7318,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45274</v>
+        <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7333,7 +7338,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7370,14 +7375,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45835</v>
+        <v>45635</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7389,13 +7394,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7432,14 +7432,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45600</v>
+        <v>45769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7453,11 +7453,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>10.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7494,14 +7494,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45737</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7513,8 +7513,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7551,14 +7556,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45835</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7572,11 +7577,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7613,14 +7618,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7632,8 +7637,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7670,14 +7680,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7689,13 +7699,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7732,14 +7737,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7753,11 +7758,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7794,14 +7799,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7813,13 +7818,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7856,14 +7856,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44481</v>
+        <v>45727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,8 +7875,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7913,14 +7918,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45737</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7934,11 +7939,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7975,14 +7980,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7994,13 +7999,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45769</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8099,14 +8099,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45769</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8156,14 +8156,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45789</v>
+        <v>45274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8213,14 +8213,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45442</v>
+        <v>44364</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8270,14 +8270,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>44991</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8348,11 +8348,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8389,14 +8389,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44998</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8408,13 +8408,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8451,14 +8446,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44991</v>
+        <v>45600</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,11 +8467,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8513,14 +8508,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45160</v>
+        <v>45112</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8533,7 +8528,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8565,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45390</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8591,11 +8586,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8627,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45071</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8651,13 +8646,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8694,14 +8684,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45686</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8713,13 +8703,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8756,14 +8741,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8776,7 +8761,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8813,14 +8798,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45503</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8832,8 +8817,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8870,14 +8860,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45439</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8889,8 +8879,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8922,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45390</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8948,11 +8943,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>14.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8984,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9010,11 +9005,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9051,14 +9046,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45769</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9066,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9108,14 +9103,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45784</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9129,11 +9124,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>14.6</v>
+        <v>6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9165,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44994</v>
+        <v>45632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9189,13 +9184,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9232,14 +9222,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45125</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9251,13 +9241,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9294,14 +9279,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>44998</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9315,11 +9300,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9356,14 +9341,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44971</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9375,8 +9360,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>18</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9413,14 +9403,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9432,8 +9422,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45632</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9485,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44998</v>
+        <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9546,13 +9541,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9589,14 +9579,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9599,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9646,14 +9636,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9661,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9698,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9723,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9760,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45784</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,11 +9781,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9832,14 +9822,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9851,8 +9841,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9884,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45635</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9908,8 +9903,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>22.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1683-2026</t>
+          <t>A 9956-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46034.58318287037</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>29.2</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -988,229 +988,229 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 1683-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46034.58318287037</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Talltita</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 9956-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44405</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,23 +1328,23 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>27.3</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,59 +1356,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45019</v>
+        <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,19 +1416,14 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>27.3</v>
+        <v>16.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1460,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45632</v>
+        <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,17 +1502,17 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1545,31 +1536,35 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1583,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,14 +1656,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45770</v>
+        <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,14 +1675,19 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>16.4</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,8 +1765,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1775,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1793,42 +1798,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,14 +1930,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,16 +1949,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45439</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45019</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,13 +3608,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>26.3</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3651,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3671,7 +3666,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3708,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44919</v>
+        <v>45477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,8 +3722,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44858</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3822,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45071</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,8 +3841,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3879,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45442</v>
+        <v>45071</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,8 +3903,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3936,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>44971</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,13 +3965,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3998,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,13 +4022,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4060,14 +4060,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4079,13 +4079,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4122,14 +4117,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4142,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>16.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4179,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>44364</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,13 +4198,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4246,14 +4236,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45902</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4267,11 +4257,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4308,14 +4298,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45019</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4327,8 +4317,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>8.5</v>
+        <v>26.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4360,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4386,11 +4381,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4427,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4447,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4489,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45071</v>
+        <v>45632</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4508,13 +4503,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4551,14 +4541,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45071</v>
+        <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4572,11 +4562,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4613,14 +4603,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,13 +4622,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4675,14 +4660,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4694,8 +4679,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4732,14 +4722,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4757,7 +4747,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>18</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4794,14 +4784,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45784</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4813,8 +4803,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4851,14 +4846,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4870,13 +4865,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4913,14 +4903,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45727</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4934,11 +4924,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4975,14 +4965,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45840</v>
+        <v>44739</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4994,13 +4984,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5037,14 +5022,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44994</v>
+        <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,13 +5041,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5099,14 +5079,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>44861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5118,13 +5098,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5161,14 +5136,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45839</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5180,13 +5155,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5223,14 +5193,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5248,7 +5218,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5285,14 +5255,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44998</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5306,11 +5276,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5347,14 +5317,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45846</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5372,7 +5342,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5409,14 +5379,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45902</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,11 +5400,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5471,14 +5441,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5461,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5528,14 +5498,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45477</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5549,11 +5519,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.4</v>
+        <v>22.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5590,14 +5560,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45503</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5609,8 +5579,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5647,14 +5622,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45751.683125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5647,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5709,14 +5684,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5728,13 +5703,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5771,14 +5741,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45131</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5791,7 +5761,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5828,14 +5798,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5818,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5885,14 +5855,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5875,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5942,14 +5912,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44739</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5961,8 +5931,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5999,14 +5974,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6018,8 +5993,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6056,14 +6036,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6081,7 +6061,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6118,14 +6098,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44861</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6137,8 +6117,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6175,14 +6160,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44971</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6195,7 +6180,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6232,14 +6217,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44746</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6253,11 +6238,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6294,14 +6279,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45943</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,11 +6300,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6356,14 +6341,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45071</v>
+        <v>45635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6375,13 +6360,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6418,14 +6398,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>44919</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6437,13 +6417,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6480,14 +6455,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6505,7 +6480,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6542,14 +6517,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6567,7 +6542,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6604,14 +6579,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,11 +6600,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6666,14 +6641,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,13 +6660,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>17.7</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6728,14 +6698,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45839</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6747,8 +6717,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6785,14 +6760,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45446</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6804,8 +6779,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6842,14 +6822,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>44746</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6867,7 +6847,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6904,14 +6884,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45972</v>
+        <v>45840</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6923,8 +6903,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6961,14 +6946,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44481</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,8 +6965,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7018,14 +7008,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,13 +7027,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7080,14 +7065,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45125</v>
+        <v>45842.533125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7105,7 +7090,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7142,14 +7127,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45846</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7161,8 +7146,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7199,14 +7189,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7224,7 +7214,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>16.8</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7261,14 +7251,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7281,7 +7271,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7318,14 +7308,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45160</v>
+        <v>45943</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,8 +7327,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7375,14 +7370,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45635</v>
+        <v>45112</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7395,7 +7390,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7432,14 +7427,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45769</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7453,11 +7448,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>10.1</v>
+        <v>17.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7494,14 +7489,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45737</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7513,13 +7508,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7556,14 +7546,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45835</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7577,11 +7567,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7618,14 +7608,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,13 +7627,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7680,14 +7665,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,8 +7684,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7737,14 +7727,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45972</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7756,13 +7746,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7799,14 +7784,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45274</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7819,7 +7804,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7856,14 +7841,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45727</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7877,11 +7862,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7918,14 +7903,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7937,13 +7922,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7980,14 +7960,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45600</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,8 +7979,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8037,14 +8022,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,13 +8041,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8099,14 +8079,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45835</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8118,8 +8098,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8156,14 +8141,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45274</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8175,8 +8160,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8213,14 +8203,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44364</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8232,8 +8222,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45789</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8290,7 +8285,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8322,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44991</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8348,11 +8343,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8389,14 +8384,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8408,8 +8403,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>11.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8446,14 +8446,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45600</v>
+        <v>44481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8465,13 +8465,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8508,14 +8503,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45112</v>
+        <v>45737</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8527,8 +8522,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45390</v>
+        <v>45769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,11 +8586,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>10.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.6</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8684,14 +8684,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45686</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8703,8 +8703,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8741,14 +8746,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8761,7 +8766,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8798,14 +8803,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8817,13 +8822,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8860,14 +8860,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8881,11 +8881,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8922,14 +8922,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45789</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8941,13 +8941,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>14.6</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8984,14 +8979,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>44998</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9005,11 +9000,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9046,14 +9041,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45769</v>
+        <v>44991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9065,8 +9060,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9103,14 +9103,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45784</v>
+        <v>45160</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9122,13 +9122,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9165,14 +9160,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45632</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9184,8 +9179,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9222,14 +9222,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45071</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9241,8 +9241,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9279,14 +9284,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44998</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9300,11 +9305,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9341,14 +9346,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9360,13 +9365,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>18</v>
+        <v>4.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9403,14 +9403,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9422,13 +9422,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9465,14 +9460,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9485,7 +9480,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>6.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9522,14 +9517,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45635</v>
+        <v>45390</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9541,8 +9536,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9579,14 +9579,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9598,8 +9598,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9636,14 +9641,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9655,13 +9660,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9698,14 +9698,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9719,11 +9719,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>14.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9760,14 +9760,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>44994</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9781,11 +9781,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9822,14 +9822,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9884,14 +9884,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,11 +9905,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>22.6</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 9956-2022</t>
+          <t>A 2314-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44621</v>
+        <v>45673</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -964,16 +964,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -988,134 +983,139 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 9956-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>44405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,24 +1328,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>27.3</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1356,55 +1356,59 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45770</v>
+        <v>45104</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,7 +1421,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.4</v>
+        <v>12.2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1426,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1441,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1455,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45104</v>
+        <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,17 +1509,22 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>27.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1526,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1536,49 +1549,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44753</v>
+        <v>45632</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,7 +1600,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1625,45 +1634,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,19 +1684,14 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>16.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1719,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44405</v>
+        <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,25 +1769,20 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1795,45 +1794,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
@@ -1847,7 +1842,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,14 +1925,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45632</v>
+        <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,11 +1944,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,14 +2622,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30868-2022</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44767</v>
+        <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 30868-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 29510-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44564</v>
+        <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,8 +2755,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2793,14 +2798,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62470-2021</t>
+          <t>A 29513-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44503</v>
+        <v>44753</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2818,7 +2823,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2855,14 +2860,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29510-2022</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44753</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2874,13 +2879,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2917,14 +2917,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29513-2022</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44753</v>
+        <v>44564</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2936,13 +2936,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2986,7 +2981,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3041,14 +3036,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 62470-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44840</v>
+        <v>44503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3060,8 +3055,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3475,14 +3475,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41097-2021</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44422</v>
+        <v>45019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,8 +3494,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>26.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3532,14 +3537,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3557,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3594,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,8 +3613,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3656,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45686</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,8 +3675,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3718,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 41097-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45477</v>
+        <v>44422</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,13 +3737,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3775,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>44919</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3785,7 +3795,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3822,14 +3832,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45071</v>
+        <v>44858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,13 +3851,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3889,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45071</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3914,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3951,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44971</v>
+        <v>45751.683125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3965,8 +3970,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4003,14 +4013,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4023,7 +4033,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4060,14 +4070,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4080,7 +4090,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4117,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,13 +4146,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>16.8</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4179,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44364</v>
+        <v>45442</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4199,7 +4204,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4236,14 +4241,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45902</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4257,11 +4262,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4298,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45019</v>
+        <v>45439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,13 +4322,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>26.3</v>
+        <v>6.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4360,14 +4360,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4381,11 +4381,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45632</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4501,6 +4501,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -4541,14 +4546,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44998</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4562,11 +4567,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4603,14 +4608,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4628,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4660,14 +4665,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4681,11 +4686,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.7</v>
+        <v>22.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4722,14 +4727,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>44481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,13 +4746,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>18</v>
+        <v>5.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4784,14 +4784,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45784</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4805,11 +4805,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45071</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4865,8 +4865,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4903,14 +4908,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45727</v>
+        <v>45071</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,11 +4929,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4965,14 +4970,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44739</v>
+        <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4984,8 +4989,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5022,14 +5032,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45635</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5052,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5079,14 +5089,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44861</v>
+        <v>44994</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5098,8 +5108,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5136,14 +5151,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,8 +5170,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5193,14 +5213,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5218,7 +5238,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5255,14 +5275,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5280,7 +5300,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5317,14 +5337,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5342,7 +5362,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5379,14 +5399,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5404,7 +5424,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5441,14 +5461,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45131</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,8 +5480,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>16.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5498,14 +5523,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5519,11 +5544,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>22.6</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5560,14 +5585,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>44998</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,11 +5606,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5622,14 +5647,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45160</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,13 +5666,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5684,14 +5704,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5703,8 +5723,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5741,14 +5766,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45112</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5761,7 +5786,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5798,14 +5823,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45635</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5818,7 +5843,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5855,14 +5880,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45446</v>
+        <v>45503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5900,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5912,14 +5937,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45769</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,11 +5958,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5974,14 +5999,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5999,7 +6024,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>11.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6036,14 +6061,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6061,7 +6086,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6098,14 +6123,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,13 +6142,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6160,14 +6180,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6179,8 +6199,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6217,14 +6242,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6242,7 +6267,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6279,14 +6304,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45840</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6304,7 +6329,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6341,14 +6366,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45635</v>
+        <v>45737</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6360,8 +6385,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6398,14 +6428,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44919</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6417,8 +6447,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6455,14 +6490,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45839</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6480,7 +6515,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6517,14 +6552,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45842.533125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6542,7 +6577,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.4</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6579,14 +6614,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,11 +6635,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6641,14 +6676,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6660,8 +6695,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6698,14 +6738,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45839</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6717,13 +6757,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6760,14 +6795,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6785,7 +6820,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6822,14 +6857,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44746</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6841,13 +6876,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6884,14 +6914,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45840</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6909,7 +6939,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6946,14 +6976,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,11 +6997,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7008,14 +7038,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7028,7 +7058,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7065,14 +7095,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45842.533125</v>
+        <v>44739</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7084,13 +7114,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7127,14 +7152,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45846</v>
+        <v>45727</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7148,11 +7173,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7189,14 +7214,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7208,13 +7233,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7251,14 +7271,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7270,8 +7290,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7308,14 +7333,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45943</v>
+        <v>44861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7327,13 +7352,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7370,14 +7390,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45112</v>
+        <v>44971</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7390,7 +7410,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7427,14 +7447,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>44746</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7452,7 +7472,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>17.7</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7489,14 +7509,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7508,8 +7528,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>12</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7546,14 +7571,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7565,13 +7590,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7608,14 +7628,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45274</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7628,7 +7648,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7665,14 +7685,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>44364</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7684,13 +7704,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7727,14 +7742,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45972</v>
+        <v>44991</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7746,8 +7761,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7784,14 +7804,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45274</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7841,14 +7861,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7860,13 +7880,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7903,14 +7918,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7923,7 +7938,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7960,14 +7975,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45600</v>
+        <v>45686</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7979,13 +7994,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8022,14 +8032,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8042,7 +8052,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8079,14 +8089,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45835</v>
+        <v>45902</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8100,11 +8110,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8141,14 +8151,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45477</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8162,11 +8172,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>11.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8203,14 +8213,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8228,7 +8238,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8265,14 +8275,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,8 +8294,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8322,14 +8337,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8343,11 +8358,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.2</v>
+        <v>14.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8384,14 +8399,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8409,7 +8424,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>11.5</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8446,14 +8461,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44481</v>
+        <v>45769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8466,7 +8481,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8503,14 +8518,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45737</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8522,13 +8537,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8565,14 +8575,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45769</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8584,13 +8594,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>10.1</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8627,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45769</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8647,7 +8652,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8684,14 +8689,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45784</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,11 +8710,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8746,14 +8751,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45442</v>
+        <v>45632</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8766,7 +8771,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8803,14 +8808,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8823,7 +8828,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8860,14 +8865,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>44998</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8881,11 +8886,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8922,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45789</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8941,8 +8946,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>18</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8979,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44998</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9000,11 +9010,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9041,14 +9051,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44991</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9060,13 +9070,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9103,14 +9108,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45160</v>
+        <v>45943</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9122,8 +9127,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9160,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45635</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9179,13 +9189,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9222,14 +9227,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45071</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9243,11 +9248,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9284,14 +9289,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9305,11 +9310,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>17.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9346,14 +9351,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9366,7 +9371,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9403,14 +9408,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45503</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9422,8 +9427,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9460,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45439</v>
+        <v>45972</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9480,7 +9490,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9517,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45390</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9538,11 +9548,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9579,14 +9589,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9598,13 +9608,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9641,14 +9646,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45835</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9660,8 +9665,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9698,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9719,11 +9729,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.6</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9760,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44994</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9779,13 +9789,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9822,14 +9827,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45125</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9852,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9884,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,13 +9908,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2314-2025</t>
+          <t>A 9956-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45673</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -964,11 +964,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -983,139 +988,134 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Svart trolldruva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 9956-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44405</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,23 +1328,23 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>27.3</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,59 +1356,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45104</v>
+        <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1417,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>12.2</v>
+        <v>16.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1430,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1445,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1455,49 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45019</v>
+        <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,23 +1501,18 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>27.3</v>
+        <v>12.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1539,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1549,45 +1536,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45632</v>
+        <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1591,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1634,45 +1625,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45770</v>
+        <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,14 +1675,19 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>16.4</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1719,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44753</v>
+        <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,21 +1765,26 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1794,41 +1795,45 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,14 +1930,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,16 +1949,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,14 +2622,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 30868-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840</v>
+        <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30868-2022</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44767</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29510-2022</t>
+          <t>A 62470-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44753</v>
+        <v>44503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2798,14 +2798,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29513-2022</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44753</v>
+        <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2817,13 +2817,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2860,14 +2855,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 29510-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2879,8 +2874,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2917,14 +2917,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 29513-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44564</v>
+        <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2936,8 +2936,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2981,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,14 +3041,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62470-2021</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44503</v>
+        <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,13 +3060,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3475,14 +3475,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 41097-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45019</v>
+        <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,13 +3494,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>26.3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3537,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3557,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3594,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45071</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,13 +3608,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3656,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,13 +3665,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3718,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41097-2021</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44422</v>
+        <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3737,8 +3722,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3775,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44919</v>
+        <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3794,8 +3784,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3832,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44858</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3847,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3889,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3914,7 +3909,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>16.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3951,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45751.683125</v>
+        <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3970,13 +3965,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4013,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,8 +4022,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.3</v>
+        <v>26.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4070,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45446</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,8 +4084,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4127,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,8 +4146,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4189,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45442</v>
+        <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,8 +4208,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4241,14 +4251,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,13 +4270,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45439</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4328,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4360,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>44739</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4379,13 +4384,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>44861</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,13 +4503,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4546,14 +4541,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4566,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4603,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,8 +4622,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4665,14 +4665,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>22.6</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44481</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,8 +4746,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5.2</v>
+        <v>22.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4784,14 +4789,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4803,13 +4808,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45071</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45071</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45125</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,8 +5051,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44994</v>
+        <v>45131</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,13 +5113,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5275,14 +5275,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5337,14 +5337,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45751.683125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5399,14 +5399,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5418,13 +5418,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5461,14 +5456,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5486,7 +5481,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16.8</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5523,14 +5518,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5548,7 +5543,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>11.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5585,14 +5580,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44998</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5606,11 +5601,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5647,14 +5642,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45160</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,7 +5662,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5704,14 +5699,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45600</v>
+        <v>45839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5725,11 +5720,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5766,14 +5761,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45112</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5785,8 +5780,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5823,14 +5823,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45635</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5880,14 +5880,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45503</v>
+        <v>45840</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5899,8 +5899,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5937,14 +5942,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45769</v>
+        <v>45477</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,11 +5963,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5999,14 +6004,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6024,7 +6029,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11.4</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6061,14 +6066,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45842.533125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6091,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6123,14 +6128,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45635</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6205,7 +6210,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6242,14 +6247,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6261,13 +6266,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45840</v>
+        <v>44919</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6323,13 +6323,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6366,14 +6361,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45737</v>
+        <v>45902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6387,11 +6382,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6428,14 +6423,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>44746</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6449,7 +6444,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6490,14 +6485,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45839</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6509,13 +6504,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6552,14 +6542,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6577,7 +6567,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6614,14 +6604,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45390</v>
+        <v>45112</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6633,13 +6623,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6676,14 +6661,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45846</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6695,13 +6680,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6738,14 +6718,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6758,7 +6738,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6795,14 +6775,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6814,13 +6794,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6857,14 +6832,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6877,7 +6852,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6914,14 +6889,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6933,13 +6908,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6976,14 +6946,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6997,11 +6967,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7038,14 +7008,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45131</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7057,8 +7027,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>17.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7095,14 +7070,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44739</v>
+        <v>45274</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7115,7 +7090,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7152,14 +7127,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45727</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7177,7 +7152,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7214,14 +7189,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45600</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7233,8 +7208,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7271,14 +7251,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7290,13 +7270,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7333,14 +7308,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44861</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7352,8 +7327,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7390,14 +7370,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44971</v>
+        <v>45972</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7410,7 +7390,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7447,14 +7427,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44746</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7468,11 +7448,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7509,14 +7489,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7530,11 +7510,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7571,14 +7551,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7590,8 +7570,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7628,14 +7613,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45274</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7647,8 +7632,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7685,14 +7675,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44364</v>
+        <v>44481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7705,7 +7695,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7742,14 +7732,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44991</v>
+        <v>45737</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7763,11 +7753,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7804,14 +7794,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7824,7 +7814,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7861,14 +7851,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45769</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7880,8 +7870,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>4.6</v>
+        <v>10.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7918,14 +7913,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7938,7 +7933,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7975,14 +7970,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45686</v>
+        <v>45835</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7994,8 +7989,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8032,14 +8032,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45442</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8089,14 +8089,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45902</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45477</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,13 +8170,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8220,7 +8215,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,14 +8270,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8294,13 +8289,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8337,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>44998</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8362,7 +8352,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>14.6</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8399,14 +8389,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>44991</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8420,11 +8410,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8461,14 +8451,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45769</v>
+        <v>45160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8481,7 +8471,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8518,14 +8508,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8537,8 +8527,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8575,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8594,8 +8589,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8651,8 +8651,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8689,14 +8694,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45784</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8710,11 +8715,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8751,14 +8756,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45632</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8771,7 +8776,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8808,14 +8813,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8828,7 +8833,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8865,14 +8870,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44998</v>
+        <v>45439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8882,11 +8887,6 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -8927,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8948,11 +8948,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>18</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9010,11 +9010,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9051,14 +9051,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>8.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45943</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9129,11 +9129,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>14.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45635</v>
+        <v>44994</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9189,8 +9189,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9227,14 +9232,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9248,11 +9253,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9289,14 +9294,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9310,11 +9315,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>17.7</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9351,14 +9356,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>44971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9371,7 +9376,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9408,14 +9413,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9427,13 +9432,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45972</v>
+        <v>45632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>44998</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9548,11 +9548,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9589,14 +9589,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9646,14 +9646,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45835</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9729,11 +9729,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>18</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45784</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,8 +9789,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9827,14 +9832,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,13 +9851,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45789</v>
+        <v>45635</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45673</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62470-2021</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44503</v>
+        <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,13 +2755,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2798,14 +2793,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 62470-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44564</v>
+        <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2817,8 +2812,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3827,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,8 +3846,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>16.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3889,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45019</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,11 +3910,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>16.8</v>
+        <v>26.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3951,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44364</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3971,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4003,14 +4008,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45019</v>
+        <v>44364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4022,13 +4027,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>26.3</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4127,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,13 +4146,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4189,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45727</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4210,11 +4205,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4251,14 +4246,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45789</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4266,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4308,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4328,7 +4323,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4360,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44739</v>
+        <v>45727</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4382,6 +4377,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>44739</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4441,13 +4441,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4479,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44861</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,8 +4498,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4808,8 +4808,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.6</v>
+        <v>11.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4846,14 +4851,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>44861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4865,13 +4870,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45902</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4929,11 +4929,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45131</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,8 +5113,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5151,14 +5156,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5176,7 +5181,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5213,14 +5218,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5243,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5275,14 +5280,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5300,7 +5305,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5337,14 +5342,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45131</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5356,13 +5361,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5399,14 +5399,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45446</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5418,8 +5418,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5456,14 +5461,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45751.683125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5481,7 +5486,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5518,14 +5523,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,7 +5548,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.4</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5580,14 +5585,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5610,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>11.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5642,14 +5647,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5662,7 +5667,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5699,14 +5704,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45839</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5724,7 +5729,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5761,14 +5766,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5780,13 +5785,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5823,14 +5823,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45839</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5842,8 +5842,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5880,14 +5885,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45840</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5899,13 +5904,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45477</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5961,13 +5961,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6004,14 +5999,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6023,13 +6018,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6066,14 +6056,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6091,7 +6081,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6128,14 +6118,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45635</v>
+        <v>45840</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6147,8 +6137,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6185,14 +6180,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45846</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6205,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6247,14 +6242,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45842.533125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6266,8 +6261,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44919</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6323,8 +6323,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6361,14 +6366,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6380,13 +6385,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6423,14 +6423,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44746</v>
+        <v>45846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6444,11 +6444,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6485,14 +6485,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6542,14 +6542,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45635</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6561,13 +6561,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6604,14 +6599,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45112</v>
+        <v>44919</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6624,7 +6619,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6661,14 +6656,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6680,8 +6675,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6718,14 +6718,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>44746</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6737,8 +6737,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6775,14 +6780,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6794,8 +6799,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>17.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6832,14 +6842,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6852,7 +6862,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6889,14 +6899,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6908,8 +6918,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6946,14 +6961,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,11 +6982,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7008,14 +7023,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45789</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7027,13 +7042,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>17.7</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7070,14 +7080,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45274</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7089,8 +7099,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7127,14 +7142,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7146,13 +7161,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7189,14 +7199,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45600</v>
+        <v>45972</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7208,13 +7218,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7251,14 +7256,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7270,8 +7275,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7308,14 +7318,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7327,13 +7337,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7370,14 +7375,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45972</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7390,7 +7395,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7427,14 +7432,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7446,13 +7451,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7489,14 +7489,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45835</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7510,11 +7510,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.2</v>
+        <v>5.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7551,14 +7551,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7572,11 +7572,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.5</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7632,13 +7632,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7675,14 +7670,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44481</v>
+        <v>45274</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7695,7 +7690,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7732,14 +7727,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45737</v>
+        <v>45600</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7753,11 +7748,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7794,14 +7789,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7814,7 +7809,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7851,14 +7846,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45769</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7872,11 +7867,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.1</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7913,14 +7908,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45769</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,8 +7927,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7970,14 +7970,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45835</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8032,14 +8032,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45442</v>
+        <v>44481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8089,14 +8089,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45737</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,11 +8110,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45769</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,8 +8170,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8208,14 +8213,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45769</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,13 +8232,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8270,14 +8270,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45442</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44998</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8346,13 +8346,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8389,14 +8384,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44991</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,11 +8405,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8451,14 +8446,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45160</v>
+        <v>44998</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8470,8 +8465,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8508,14 +8508,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>44991</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,11 +8529,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45160</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8589,13 +8589,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8627,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45071</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8657,7 +8652,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8694,14 +8689,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45071</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8719,7 +8714,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8756,14 +8751,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8775,8 +8770,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8813,14 +8813,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45503</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8870,14 +8870,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45439</v>
+        <v>45503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45390</v>
+        <v>45439</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8946,13 +8946,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8984,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9010,11 +9005,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9051,14 +9046,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9070,8 +9065,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>8.4</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9127,13 +9127,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>14.6</v>
+        <v>8.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9165,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44994</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9191,11 +9186,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>14.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9232,14 +9227,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45125</v>
+        <v>44994</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9253,11 +9248,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9294,14 +9289,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44971</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9375,8 +9370,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9413,14 +9413,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>44971</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45632</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44998</v>
+        <v>45632</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9546,13 +9546,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9589,14 +9584,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>44998</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9608,8 +9603,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9646,14 +9646,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9665,13 +9665,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9703,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9728,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>6.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9765,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45784</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,11 +9786,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9832,14 +9827,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45784</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9851,8 +9846,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45635</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,14 +1036,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2314-2025</t>
+          <t>A 1683-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45673</v>
+        <v>46034.58318287037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1055,17 +1055,22 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>29.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1080,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1091,45 +1096,49 @@
       <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
-Svart trolldruva</t>
+Talltita</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 1683-2026</t>
+          <t>A 2314-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46034.58318287037</v>
+        <v>45673</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1141,22 +1150,17 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>29.2</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1171,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1182,35 +1186,31 @@
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
-Talltita</t>
+Svart trolldruva</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3827,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45632</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,13 +3846,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>16.8</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3889,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45019</v>
+        <v>44998</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3914,7 +3909,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>26.3</v>
+        <v>6.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3958,7 +3953,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4008,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44364</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4023,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4065,14 +4060,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4086,11 +4081,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4127,14 +4122,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45635</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,8 +4141,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45784</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4205,11 +4205,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4246,14 +4246,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4322,8 +4322,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>16.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4360,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45727</v>
+        <v>44364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4379,13 +4384,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44739</v>
+        <v>45635</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4479,14 +4479,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45972</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4498,13 +4498,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4541,14 +4536,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45019</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4562,11 +4557,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>26.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4603,14 +4598,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4624,11 +4619,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4665,14 +4660,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,13 +4679,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4727,14 +4717,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4748,11 +4738,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>22.6</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4789,14 +4779,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45477</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4808,13 +4798,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>11.4</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4851,14 +4836,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44861</v>
+        <v>45727</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4870,8 +4855,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4908,14 +4898,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45902</v>
+        <v>45477</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4929,11 +4919,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>11.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4985,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5022,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5047,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5094,14 +5084,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5109,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>44739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5175,13 +5165,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5218,14 +5203,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5228,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5280,14 +5265,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45902</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,11 +5286,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5342,14 +5327,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45131</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5361,8 +5346,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>22.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5399,14 +5389,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5424,7 +5414,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5461,14 +5451,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45751.683125</v>
+        <v>44861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5480,13 +5470,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5523,14 +5508,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5548,7 +5533,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5585,14 +5570,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5610,7 +5595,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.4</v>
+        <v>4.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5647,14 +5632,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45446</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5666,8 +5651,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5704,14 +5694,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5719,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5766,14 +5756,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5785,8 +5775,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5823,14 +5818,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45839</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5843,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5892,7 +5887,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6006,7 +6001,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6056,14 +6051,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6075,13 +6070,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6118,14 +6108,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45840</v>
+        <v>45131</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6137,13 +6127,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6180,14 +6165,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6205,7 +6190,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6242,14 +6227,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45751.683125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6267,7 +6252,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6304,14 +6289,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45446</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6323,13 +6308,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6366,14 +6346,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6385,8 +6365,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6423,14 +6408,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45846</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6448,7 +6433,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.4</v>
+        <v>11.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6485,14 +6470,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6504,8 +6489,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6542,14 +6532,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45635</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6562,7 +6552,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6599,14 +6589,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44919</v>
+        <v>45839</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6618,8 +6608,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6656,14 +6651,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45943</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6677,11 +6672,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6718,14 +6713,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44746</v>
+        <v>45840</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,11 +6734,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6780,14 +6775,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6801,11 +6796,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>17.7</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6842,14 +6837,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6862,7 +6857,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6899,14 +6894,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45842.533125</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6920,11 +6915,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6961,14 +6956,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6982,11 +6977,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7023,14 +7018,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45789</v>
+        <v>45846</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7042,8 +7037,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7099,13 +7099,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7142,14 +7137,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45112</v>
+        <v>45635</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7162,7 +7157,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7199,14 +7194,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45972</v>
+        <v>44919</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7219,7 +7214,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7256,14 +7251,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7277,11 +7272,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.1</v>
+        <v>17.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7318,14 +7313,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,8 +7332,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7375,14 +7375,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>44746</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,8 +7394,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7432,14 +7437,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7452,7 +7457,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7489,14 +7494,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45835</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7514,7 +7519,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7551,14 +7556,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7576,7 +7581,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7613,14 +7618,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45112</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7633,7 +7638,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7670,14 +7675,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45274</v>
+        <v>45835</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7689,8 +7694,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7727,14 +7737,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45600</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7752,7 +7762,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7789,14 +7799,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7809,7 +7819,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7846,14 +7856,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7865,13 +7875,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7908,14 +7913,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7927,13 +7932,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7970,14 +7970,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11.5</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8032,14 +8032,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44481</v>
+        <v>45274</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8089,14 +8089,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45737</v>
+        <v>45789</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8108,13 +8108,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8151,14 +8146,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45769</v>
+        <v>45600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8172,11 +8167,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>10.1</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8213,14 +8208,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45769</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8233,7 +8228,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45442</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8289,8 +8284,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8346,8 +8346,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8384,14 +8389,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8409,7 +8414,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8446,14 +8451,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44998</v>
+        <v>44481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8465,13 +8470,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8508,14 +8508,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44991</v>
+        <v>45737</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,11 +8529,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45160</v>
+        <v>45769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8589,8 +8589,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>10.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8627,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8646,13 +8651,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45071</v>
+        <v>45442</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8708,13 +8708,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8751,14 +8746,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8770,13 +8765,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8813,14 +8803,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8832,8 +8822,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8870,14 +8865,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45503</v>
+        <v>44998</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8889,8 +8884,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45439</v>
+        <v>44991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8946,8 +8946,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8984,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45390</v>
+        <v>45160</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9003,13 +9008,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9046,14 +9046,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9067,11 +9067,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9127,8 +9127,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9165,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9186,11 +9191,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>14.6</v>
+        <v>7.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9227,14 +9232,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44994</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9246,13 +9251,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9289,14 +9289,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45125</v>
+        <v>45503</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9308,13 +9308,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9351,14 +9346,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45439</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9370,13 +9365,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9413,14 +9403,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44971</v>
+        <v>45390</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9432,8 +9422,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9489,8 +9484,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45632</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9584,14 +9584,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44998</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.9</v>
+        <v>14.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9646,14 +9646,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>44994</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9665,8 +9665,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9703,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9728,7 +9733,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9765,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9795,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>18</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9827,14 +9832,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45784</v>
+        <v>44971</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,13 +9851,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 9956-2022</t>
+          <t>A 1683-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44621</v>
+        <v>46034.58318287037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,17 +970,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>29.2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -988,229 +988,229 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Talltita</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 9956-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 1683-2026</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46034.58318287037</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Talltita</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,13 +1326,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>27.3</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1366,45 +1361,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45770</v>
+        <v>44405</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1416,8 +1411,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>16.4</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1441,55 +1441,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45104</v>
+        <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,17 +1505,22 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>27.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1526,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1536,49 +1545,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44753</v>
+        <v>45632</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,7 +1596,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1625,45 +1630,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,19 +1680,14 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>16.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44405</v>
+        <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,13 +1765,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>12.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1780,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1798,42 +1793,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1847,7 +1842,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,14 +1925,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45632</v>
+        <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,11 +1944,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45769</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45784</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,8 +3608,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3651,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45686</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3671,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3708,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45071</v>
+        <v>45632</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,13 +3727,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45071</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,13 +3784,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3827,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45632</v>
+        <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,8 +3841,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44998</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,11 +3905,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.9</v>
+        <v>18</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3965,8 +3965,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4003,14 +4008,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4023,7 +4028,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4060,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4079,13 +4084,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4122,14 +4122,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45784</v>
+        <v>45635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,13 +4203,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4246,14 +4241,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45477</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4265,8 +4260,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>11.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45019</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4324,11 +4324,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>16.8</v>
+        <v>26.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44364</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45635</v>
+        <v>45943</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4441,8 +4441,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4479,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45972</v>
+        <v>44919</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4499,7 +4504,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4536,14 +4541,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45019</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4557,11 +4562,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>26.3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4598,14 +4603,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4628,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>17.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4660,14 +4665,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4685,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4717,14 +4722,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4736,13 +4741,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4779,14 +4779,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,8 +4798,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4836,14 +4841,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45727</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4857,11 +4862,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4898,14 +4903,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45477</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4919,11 +4924,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.4</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4967,7 +4972,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5022,14 +5027,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5047,7 +5052,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5084,14 +5089,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5103,13 +5108,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5146,14 +5146,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44739</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,8 +5165,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>22.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,13 +5227,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45902</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,13 +5284,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5327,14 +5322,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,13 +5341,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>22.6</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5389,14 +5379,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5408,13 +5398,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5451,14 +5436,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44861</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5471,7 +5456,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5508,14 +5493,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,11 +5514,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5577,7 +5562,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5639,7 +5624,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5701,7 +5686,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5756,14 +5741,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5781,7 +5766,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5818,14 +5803,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5843,7 +5828,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5880,14 +5865,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5899,8 +5884,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5937,14 +5927,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5957,7 +5947,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5994,14 +5984,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6013,8 +6003,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6051,14 +6046,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6070,8 +6065,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6108,14 +6108,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45131</v>
+        <v>45071</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6127,8 +6127,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6165,14 +6170,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45071</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6190,7 +6195,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6227,14 +6232,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6252,7 +6257,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6289,14 +6294,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45446</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6308,8 +6313,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6346,14 +6356,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6365,13 +6375,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6408,14 +6413,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6433,7 +6438,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>11.4</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6470,14 +6475,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6495,7 +6500,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6532,14 +6537,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45840</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6551,8 +6556,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6589,14 +6599,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45839</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6614,7 +6624,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6651,14 +6661,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6676,7 +6686,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6713,14 +6723,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45840</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6732,13 +6742,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6775,14 +6780,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45842.533125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6800,7 +6805,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6837,14 +6842,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>44994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6856,8 +6861,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6894,14 +6904,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45846</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6919,7 +6929,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6956,14 +6966,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6975,13 +6985,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7018,14 +7023,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45846</v>
+        <v>44998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7039,11 +7044,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7080,14 +7085,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45503</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7100,7 +7105,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7137,14 +7142,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45635</v>
+        <v>45835</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7156,8 +7161,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7194,14 +7204,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44919</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,8 +7223,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7251,14 +7266,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7270,13 +7285,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>17.7</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7313,14 +7323,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7334,11 +7344,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7375,14 +7385,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44746</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7396,11 +7406,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7437,14 +7447,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7467,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7494,14 +7504,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>44739</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7513,13 +7523,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7556,14 +7561,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7577,11 +7582,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7618,14 +7623,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45112</v>
+        <v>44861</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7638,7 +7643,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7675,14 +7680,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45835</v>
+        <v>44971</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7694,13 +7699,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7737,14 +7737,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>44746</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7799,14 +7799,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,8 +7818,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7856,14 +7861,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,8 +7880,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7913,14 +7923,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,8 +7942,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7970,14 +7985,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7995,7 +8010,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8032,14 +8047,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45274</v>
+        <v>45751.683125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8051,8 +8066,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8096,7 +8116,7 @@
         <v>45789</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8146,14 +8166,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45600</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,13 +8185,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8208,14 +8223,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8228,7 +8243,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8265,14 +8280,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>44481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,13 +8299,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8337,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8348,11 +8358,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8389,14 +8399,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8408,13 +8418,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8451,14 +8456,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44481</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8470,8 +8475,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>16.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8508,14 +8518,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45737</v>
+        <v>45160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8527,13 +8537,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8575,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45769</v>
+        <v>45635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8589,13 +8594,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>45769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8651,8 +8651,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8689,14 +8694,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45442</v>
+        <v>45737</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8708,8 +8713,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8746,14 +8756,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8765,8 +8775,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8803,14 +8818,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8822,13 +8837,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8865,14 +8875,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44998</v>
+        <v>45727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8886,11 +8896,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8937,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44991</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8946,13 +8956,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8994,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45160</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9008,8 +9013,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9046,14 +9056,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9065,13 +9075,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9108,14 +9113,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45071</v>
+        <v>45274</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9127,13 +9132,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>44364</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9189,13 +9189,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9232,14 +9227,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>44991</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9251,8 +9246,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9289,14 +9289,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45503</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9346,14 +9346,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45439</v>
+        <v>45600</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9365,8 +9365,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9403,14 +9408,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45390</v>
+        <v>45112</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9422,13 +9427,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9465,14 +9465,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45390</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9486,11 +9486,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9584,14 +9584,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45686</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9603,13 +9603,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>14.6</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9646,14 +9641,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44994</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9665,13 +9660,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9698,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45125</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9723,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9760,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,11 +9781,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9832,14 +9822,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44971</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9851,8 +9841,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>14.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9884,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9908,8 +9903,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1683-2026</t>
+          <t>A 9956-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46034.58318287037</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>29.2</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -988,229 +988,229 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 1683-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46034.58318287037</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Talltita</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 1683-2026 artfynd.xlsx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 1683-2026 karta.png", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 1683-2026 FSC-klagomål.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 1683-2026 FSC-klagomål mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 1683-2026 tillsynsbegäran.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 1683-2026 tillsynsbegäran mail.docx", "A 1683-2026")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 1683-2026 prioriterade fågelarter.docx", "A 1683-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 9956-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44753</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,8 +1326,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>27.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1361,45 +1366,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44405</v>
+        <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1411,13 +1416,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>16.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1441,59 +1441,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45019</v>
+        <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1505,23 +1501,18 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>27.3</v>
+        <v>12.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1545,45 +1536,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45632</v>
+        <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1591,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1630,45 +1625,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45770</v>
+        <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,14 +1675,19 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>16.4</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,8 +1765,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1775,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1793,42 +1798,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,14 +1930,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,16 +1949,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45769</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45784</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,13 +3608,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3651,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3671,7 +3666,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3708,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45632</v>
+        <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,8 +3722,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,8 +3784,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3822,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44998</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,13 +3846,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3965,13 +3965,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4008,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45439</v>
+        <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4027,8 +4022,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>6.9</v>
+        <v>26.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4065,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4084,8 +4084,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4122,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45902</v>
+        <v>45727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4152,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4189,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45635</v>
+        <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4209,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4241,14 +4246,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45477</v>
+        <v>44861</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,13 +4265,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>11.4</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45019</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4324,11 +4324,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>26.3</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45943</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4443,11 +4443,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44919</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,8 +4503,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4541,14 +4546,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4562,11 +4567,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4603,14 +4608,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4624,11 +4629,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>17.7</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4665,14 +4670,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,8 +4689,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4722,14 +4732,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44858</v>
+        <v>45751.683125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,8 +4751,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4779,14 +4794,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,13 +4813,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4841,14 +4851,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,11 +4934,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4965,14 +4975,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4984,13 +4994,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5027,14 +5032,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45477</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5052,7 +5057,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45972</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,8 +5113,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5146,14 +5156,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5167,11 +5177,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>22.6</v>
+        <v>11.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5215,7 +5225,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5265,14 +5275,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,8 +5294,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5322,14 +5337,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5342,7 +5357,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5379,14 +5394,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45442</v>
+        <v>45902</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5398,8 +5413,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5436,14 +5456,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45839</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5455,8 +5475,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5493,14 +5518,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45635</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5512,13 +5537,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5555,14 +5575,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5600,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5617,14 +5637,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5636,13 +5656,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5679,14 +5694,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45840</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5704,7 +5719,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5741,14 +5756,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5766,7 +5781,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5803,14 +5818,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45842.533125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5828,7 +5843,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5865,14 +5880,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45846</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5890,7 +5905,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5927,14 +5942,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5947,7 +5962,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5984,14 +5999,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6005,11 +6020,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6046,14 +6061,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6065,13 +6080,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6108,14 +6118,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45071</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6133,7 +6143,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>12</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6170,14 +6180,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45071</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6189,13 +6199,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6232,14 +6237,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6251,13 +6256,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6294,14 +6294,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,13 +6313,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6356,14 +6351,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45112</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6376,7 +6371,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6413,14 +6408,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45943</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6434,11 +6429,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6475,14 +6470,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6496,11 +6491,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>17.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6537,14 +6532,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45840</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6556,13 +6551,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6599,14 +6589,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6620,11 +6610,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6661,14 +6651,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6680,13 +6670,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6723,14 +6708,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,8 +6727,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6780,14 +6770,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,13 +6789,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6842,14 +6827,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44994</v>
+        <v>45274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,13 +6846,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6904,14 +6884,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45846</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6929,7 +6909,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6966,14 +6946,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6986,7 +6966,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7023,14 +7003,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44998</v>
+        <v>45600</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7044,11 +7024,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7085,14 +7065,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45503</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7105,7 +7085,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7149,7 +7129,7 @@
         <v>45835</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7211,7 +7191,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7266,14 +7246,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7285,8 +7265,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7323,14 +7308,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7342,13 +7327,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7392,7 +7372,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7447,14 +7427,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45131</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7466,8 +7446,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7504,14 +7489,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44739</v>
+        <v>44481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7524,7 +7509,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7561,14 +7546,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45737</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7582,11 +7567,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7623,14 +7608,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44861</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7642,8 +7627,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7680,14 +7670,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44971</v>
+        <v>45769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,8 +7689,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>10.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7737,14 +7732,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44746</v>
+        <v>45769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7756,13 +7751,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7799,14 +7789,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,13 +7808,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7861,14 +7846,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45071</v>
+        <v>45789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7880,13 +7865,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7923,14 +7903,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,13 +7922,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7985,14 +7960,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8010,7 +7985,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8047,14 +8022,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45751.683125</v>
+        <v>44998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,11 +8043,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8109,14 +8084,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45789</v>
+        <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8128,8 +8103,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8166,14 +8146,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>45160</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8186,7 +8166,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8223,14 +8203,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45446</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8242,8 +8222,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8280,14 +8265,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44481</v>
+        <v>45071</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8299,8 +8284,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8337,14 +8327,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45125</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8362,7 +8352,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8399,14 +8389,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8419,7 +8409,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8456,14 +8446,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45503</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8475,13 +8465,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>16.8</v>
+        <v>6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8518,14 +8503,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45160</v>
+        <v>45439</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8538,7 +8523,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8575,14 +8560,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45635</v>
+        <v>45390</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8594,8 +8579,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8622,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45769</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8657,7 +8647,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8694,14 +8684,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45737</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8713,13 +8703,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8756,14 +8741,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8777,11 +8762,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>14.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8818,14 +8803,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>44994</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8837,8 +8822,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8875,14 +8865,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45727</v>
+        <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8896,11 +8886,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8937,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8956,8 +8946,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8994,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>44971</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9013,13 +9008,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9056,14 +9046,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9076,7 +9066,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9113,14 +9103,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45274</v>
+        <v>45632</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9133,7 +9123,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9160,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44364</v>
+        <v>44998</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9189,8 +9179,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9227,14 +9222,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44991</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9246,13 +9241,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9289,14 +9279,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9308,8 +9298,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9346,14 +9341,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45600</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9367,11 +9362,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9408,14 +9403,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45112</v>
+        <v>45784</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9427,8 +9422,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9465,14 +9465,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45390</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9484,13 +9484,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9547,7 +9542,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9584,14 +9579,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45686</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9604,7 +9599,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9641,14 +9636,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9660,8 +9655,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9698,14 +9698,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9760,14 +9760,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9781,11 +9781,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9822,14 +9822,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>14.6</v>
+        <v>7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9884,14 +9884,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,11 +9905,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>22.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45673</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45128.4874537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44861</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45821.51579861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45751.68105324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45751.683125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45824.51702546296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45888.36605324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45477</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45834.51931712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45834.51887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45835.37936342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45834.50034722222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>45902</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45839</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45635</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45840.64615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45840</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>45840.64806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45842.533125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45846</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45819.37296296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45733.83596064815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45736.44006944444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45112</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45943</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45951.66190972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45222.46934027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45952.33346064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>45247.43503472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45600</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45627.79015046296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45835</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>45751.67940972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>46042.65331018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45722.55008101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>45737</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>46010.6115162037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44953.56076388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>44998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45160</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45748.66613425926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45071</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45757.79734953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45627.7980787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45503</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45439</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45390</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45491.31465277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45193.92085648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45769.43887731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>44994</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45751.68385416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44971</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44974.62284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45632</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>44998</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44764.96467592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45785.51381944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45785.51457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45784</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45627.83027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45548.63049768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45673</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45128.4874537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44861</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45821.51579861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45751.68105324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45751.683125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45824.51702546296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45888.36605324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45477</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45834.51931712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45834.51887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45835.37936342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45834.50034722222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>45902</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45839</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45635</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45840.64615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44919</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45840</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>45840.64806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45842.533125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45846</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45819.37296296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45733.83596064815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45736.44006944444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45112</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45943</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45951.66190972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45222.46934027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45952.33346064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>45247.43503472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45600</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45627.79015046296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45835</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>45751.67940972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>46042.65331018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45722.55008101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>45737</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>46010.6115162037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44953.56076388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>44998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45160</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45748.66613425926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45071</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45757.79734953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45627.7980787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45503</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45439</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45390</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45491.31465277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45193.92085648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45769.43887731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>44994</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45751.68385416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44971</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44974.62284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45632</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>44998</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44764.96467592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45785.51381944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45785.51457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45784</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45627.83027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45548.63049768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 9956-2022</t>
+          <t>A 2314-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44621</v>
+        <v>45673</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -964,16 +964,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -988,134 +983,139 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 9956-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45770</v>
+        <v>45632</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.4</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,8 +1501,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1511,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1529,56 +1534,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44753</v>
+        <v>45770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,13 +1596,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>16.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1625,45 +1630,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45757.798125</v>
+        <v>44753</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,16 +1680,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44405</v>
+        <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,13 +1765,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>12.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1780,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1798,42 +1793,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1847,7 +1842,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,14 +1925,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45632</v>
+        <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,11 +1944,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,14 +2109,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 74421-2021</t>
+          <t>A 29197-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44533</v>
+        <v>44359.34857638889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 29197-2021</t>
+          <t>A 74421-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44359.34857638889</v>
+        <v>44533</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3682-2022</t>
+          <t>A 74356-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44586</v>
+        <v>44559.58675925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 56733-2021</t>
+          <t>A 37602-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44481</v>
+        <v>44399</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 74356-2021</t>
+          <t>A 56733-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44559.58675925926</v>
+        <v>44481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37602-2021</t>
+          <t>A 74423-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44399</v>
+        <v>44564</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 74423-2021</t>
+          <t>A 3682-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,14 +2979,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32249-2022</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44781</v>
+        <v>44840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,13 +2998,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>22.9</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3041,14 +3036,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 32249-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44840</v>
+        <v>44781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3060,8 +3055,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>22.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3155,14 +3155,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38128-2021</t>
+          <t>A 25053-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44405.37</v>
+        <v>44729</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,13 +3174,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3213,38 +3208,18 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25053-2022</t>
+          <t>A 25057-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44729</v>
+        <v>44729.31541666666</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3257,7 +3232,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3294,14 +3269,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25057-2022</t>
+          <t>A 69104-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44729.31541666666</v>
+        <v>44530</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3313,8 +3288,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3351,14 +3331,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 69104-2021</t>
+          <t>A 68174-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,11 +3352,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3413,14 +3393,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 68174-2021</t>
+          <t>A 38128-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44526</v>
+        <v>44405.37</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,11 +3414,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3471,18 +3451,38 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="inlineStr"/>
+      <c r="U41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="V41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="W41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="X41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="Y41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41097-2021</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44422</v>
+        <v>45442</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 41097-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>44422</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45686</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,8 +3665,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3708,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45071</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,13 +3727,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45071</v>
+        <v>44746</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,11 +3786,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,8 +3846,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3889,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3914,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>16.8</v>
+        <v>11.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3951,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44364</v>
+        <v>45071</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3965,8 +3970,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4003,14 +4013,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45019</v>
+        <v>45071</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,11 +4034,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>26.3</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4065,14 +4075,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4086,11 +4096,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4127,14 +4137,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45727</v>
+        <v>45439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,13 +4156,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4189,14 +4194,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44739</v>
+        <v>45131</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4214,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4246,14 +4251,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44861</v>
+        <v>44739</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4266,7 +4271,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4324,11 +4329,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4370,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45131</v>
+        <v>44861</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,7 +4390,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4427,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45071</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4447,7 +4452,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4489,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>44971</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,13 +4508,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4546,14 +4546,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4608,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>44994</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4629,11 +4629,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>44998</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45446</v>
+        <v>45751.683125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4813,8 +4813,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4851,14 +4856,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>44481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4870,13 +4875,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,13 +4932,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4975,14 +4970,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4990,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5027,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45477</v>
+        <v>45019</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5053,11 +5048,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11.4</v>
+        <v>26.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,13 +5108,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5175,13 +5165,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>11.4</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5218,14 +5203,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5237,8 +5222,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5275,14 +5265,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5294,13 +5284,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5337,14 +5322,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5356,8 +5341,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5394,14 +5384,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45902</v>
+        <v>45160</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5413,13 +5403,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5456,14 +5441,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45839</v>
+        <v>45727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5477,11 +5462,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5518,14 +5503,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45635</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5575,14 +5560,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45635</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5594,13 +5579,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5637,14 +5617,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44919</v>
+        <v>45769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5656,8 +5636,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>10.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5694,14 +5679,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45840</v>
+        <v>44919</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,13 +5698,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5756,14 +5736,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>44858</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5773,11 +5753,6 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -5818,14 +5793,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45737</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5839,11 +5814,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5880,14 +5855,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45846</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5880,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5942,14 +5917,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5962,7 +5937,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5999,14 +5974,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44746</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6018,13 +5993,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6061,14 +6031,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45274</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6081,7 +6051,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6118,14 +6088,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>44364</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6137,13 +6107,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6180,14 +6145,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6199,8 +6164,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6237,14 +6207,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6294,14 +6264,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>44991</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,8 +6283,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6351,14 +6326,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45112</v>
+        <v>45902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6370,8 +6345,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6408,14 +6388,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45943</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6427,13 +6407,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6470,14 +6445,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45477</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6491,11 +6466,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>17.7</v>
+        <v>11.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6532,14 +6507,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6551,8 +6526,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6589,14 +6569,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45112</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6608,13 +6588,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6651,14 +6626,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6671,7 +6646,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6708,14 +6683,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6727,13 +6702,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6770,14 +6740,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45972</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6790,7 +6760,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6827,14 +6797,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45274</v>
+        <v>45390</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6846,8 +6816,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6884,14 +6859,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6905,11 +6880,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6946,14 +6921,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6966,7 +6941,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7003,14 +6978,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45600</v>
+        <v>45686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7022,13 +6997,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7065,14 +7035,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7085,7 +7055,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7122,14 +7092,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45835</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,11 +7113,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7184,14 +7154,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7209,7 +7179,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>17.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7246,14 +7216,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7271,7 +7241,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7308,14 +7278,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7327,8 +7297,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7365,14 +7340,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7386,11 +7361,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.2</v>
+        <v>14.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7427,14 +7402,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7448,11 +7423,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7489,14 +7464,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44481</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7508,8 +7483,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7546,14 +7526,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45737</v>
+        <v>45972</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7565,13 +7545,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7608,14 +7583,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7627,13 +7602,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7670,14 +7640,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45769</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7691,11 +7661,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.1</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7732,14 +7702,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45769</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7752,7 +7722,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7789,14 +7759,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45442</v>
+        <v>45784</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7808,8 +7778,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7846,14 +7821,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45789</v>
+        <v>45632</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7866,7 +7841,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7903,14 +7878,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7923,7 +7898,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7960,14 +7935,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>44998</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7981,11 +7956,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8022,14 +7997,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44998</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8043,11 +8018,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8084,14 +8059,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44991</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8105,11 +8080,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8146,14 +8121,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45160</v>
+        <v>45835</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,8 +8140,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8203,14 +8183,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,11 +8204,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8265,14 +8245,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45071</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,13 +8264,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8327,14 +8302,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45635</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8346,13 +8321,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8389,14 +8359,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8409,7 +8379,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8446,14 +8416,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45503</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8466,7 +8436,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8503,14 +8473,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45439</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8522,8 +8492,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8560,14 +8535,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45390</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,11 +8556,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8622,14 +8597,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,11 +8618,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8684,14 +8659,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8703,8 +8678,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8741,14 +8721,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,11 +8742,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>14.6</v>
+        <v>22.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8803,14 +8783,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44994</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8824,11 +8804,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8865,14 +8845,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45125</v>
+        <v>45789</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8884,13 +8864,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8902,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8952,7 +8927,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8964,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44971</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9008,8 +8983,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9046,14 +9026,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9065,8 +9045,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9103,14 +9088,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45632</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9122,8 +9107,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9160,14 +9150,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44998</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9181,11 +9171,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9222,14 +9212,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9241,8 +9231,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9279,14 +9274,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9304,7 +9299,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.7</v>
+        <v>11.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9341,14 +9336,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9366,7 +9361,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>18</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9403,14 +9398,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45784</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9422,13 +9417,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9465,14 +9455,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9484,8 +9474,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9522,14 +9517,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45635</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9541,8 +9536,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9579,14 +9579,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45840</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9598,8 +9598,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9636,14 +9641,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9661,7 +9666,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9698,14 +9703,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45839</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9723,7 +9728,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9760,14 +9765,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45842.533125</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9785,7 +9790,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9822,14 +9827,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45846</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9852,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9884,14 +9889,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,13 +9908,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>22.6</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2314-2025</t>
+          <t>A 9956-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45673</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -964,11 +964,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -983,139 +988,134 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 2314-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Svart trolldruva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 9956-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45632</v>
+        <v>45770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44405</v>
+        <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,13 +1501,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>12.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1516,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1534,56 +1529,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45770</v>
+        <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,13 +1591,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>16.4</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1630,45 +1625,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44753</v>
+        <v>45757.798125</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,11 +1675,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1715,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,8 +1765,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1775,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1793,42 +1798,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1847,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,14 +1930,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,16 +1949,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1984,31 +1984,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,14 +2109,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 29197-2021</t>
+          <t>A 74421-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44359.34857638889</v>
+        <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 74421-2021</t>
+          <t>A 29197-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44533</v>
+        <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 74356-2021</t>
+          <t>A 3682-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44559.58675925926</v>
+        <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.9</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37602-2021</t>
+          <t>A 56733-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44399</v>
+        <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 56733-2021</t>
+          <t>A 74356-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44481</v>
+        <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 74423-2021</t>
+          <t>A 37602-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44564</v>
+        <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 3682-2022</t>
+          <t>A 74423-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44586</v>
+        <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44564</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,14 +2979,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 32249-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44840</v>
+        <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,8 +2998,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>22.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3036,14 +3041,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32249-2022</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44781</v>
+        <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,13 +3060,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>22.9</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3155,14 +3155,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25053-2022</t>
+          <t>A 38128-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44729</v>
+        <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,8 +3174,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3208,18 +3213,38 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
+      <c r="U37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="V37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="W37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="X37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="Y37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25057-2022</t>
+          <t>A 25053-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44729.31541666666</v>
+        <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3232,7 +3257,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3269,14 +3294,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 69104-2021</t>
+          <t>A 25057-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44530</v>
+        <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,13 +3313,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3331,14 +3351,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 68174-2021</t>
+          <t>A 69104-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3352,11 +3372,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3393,14 +3413,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38128-2021</t>
+          <t>A 68174-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44405.37</v>
+        <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3414,11 +3434,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3451,38 +3471,18 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="inlineStr"/>
-      <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 41097-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45442</v>
+        <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41097-2021</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44422</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45503</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,13 +3665,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3708,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3728,7 +3723,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3760,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44746</v>
+        <v>45071</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,11 +3781,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3827,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45071</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3847,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3889,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3914,7 +3909,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>11.5</v>
+        <v>16.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3951,14 +3946,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45071</v>
+        <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3970,13 +3965,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4013,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45071</v>
+        <v>45019</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4034,11 +4024,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>26.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4075,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45632</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4094,13 +4084,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4137,14 +4122,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45439</v>
+        <v>44998</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4154,6 +4139,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -4194,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45131</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4214,7 +4204,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4251,14 +4241,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44739</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4270,8 +4260,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4308,14 +4303,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4328,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>18</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4370,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44861</v>
+        <v>45784</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4389,8 +4384,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4427,14 +4427,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45071</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4446,13 +4446,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4489,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44971</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4504,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4546,14 +4541,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4567,11 +4562,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4603,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44994</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4629,11 +4624,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4670,14 +4665,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44998</v>
+        <v>45635</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,13 +4684,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4732,14 +4722,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45477</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4757,7 +4747,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4794,14 +4784,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45727</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4815,11 +4805,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44481</v>
+        <v>45902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,8 +4865,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>44739</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4928,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4970,14 +4965,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45446</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4990,7 +4985,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5027,14 +5022,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45019</v>
+        <v>44861</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5046,13 +5041,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>26.3</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5089,14 +5079,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,8 +5098,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5146,14 +5141,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,8 +5160,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5203,14 +5203,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45125</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,8 +5284,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,11 +5348,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16.8</v>
+        <v>22.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5384,14 +5389,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45160</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5404,7 +5409,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5441,14 +5446,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45727</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,13 +5465,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5503,14 +5503,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5560,14 +5560,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45635</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5579,8 +5579,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45769</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,11 +5643,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>10.1</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5679,14 +5684,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44919</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,8 +5703,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5736,14 +5746,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44858</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,8 +5765,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5793,14 +5808,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45737</v>
+        <v>45131</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,13 +5827,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5855,14 +5865,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45943</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,11 +5886,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5917,14 +5927,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,8 +5946,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5974,14 +5989,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5993,8 +6008,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6031,14 +6051,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45274</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6050,8 +6070,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6088,14 +6113,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44364</v>
+        <v>45751.683125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6107,8 +6132,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6145,14 +6175,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6164,13 +6194,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6207,14 +6232,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,8 +6251,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6264,14 +6294,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44991</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6285,11 +6315,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6326,14 +6356,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6347,11 +6377,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6388,14 +6418,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6408,7 +6438,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6445,14 +6475,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45477</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6464,13 +6494,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6507,14 +6532,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45600</v>
+        <v>45839</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,11 +6553,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6569,14 +6594,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45112</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6588,8 +6613,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6626,14 +6656,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45840</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6645,8 +6675,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6683,14 +6718,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6703,7 +6738,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6740,14 +6775,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6759,8 +6794,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6797,14 +6837,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45390</v>
+        <v>45842.533125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,11 +6858,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6859,14 +6899,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45943</v>
+        <v>44919</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6878,13 +6918,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6921,14 +6956,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6940,8 +6975,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6978,14 +7018,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45686</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6997,8 +7037,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7035,14 +7080,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7100,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7092,14 +7137,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>44746</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7162,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7154,14 +7199,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7173,13 +7218,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>17.7</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7216,14 +7256,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7237,11 +7277,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7278,14 +7318,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7299,11 +7339,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7340,14 +7380,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45112</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,13 +7399,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>14.6</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7409,7 +7444,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7464,14 +7499,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45972</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7483,13 +7518,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7526,14 +7556,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45972</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7546,7 +7576,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7583,14 +7613,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45769</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7603,7 +7633,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7647,7 +7677,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7709,7 +7739,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7759,14 +7789,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45784</v>
+        <v>45835</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7780,11 +7810,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7821,14 +7851,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45632</v>
+        <v>45274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7841,7 +7871,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7878,14 +7908,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7897,8 +7927,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7935,14 +7970,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44998</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7954,13 +7989,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7997,14 +8027,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>45600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,11 +8048,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>18</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8059,14 +8089,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8078,13 +8108,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8121,14 +8146,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45835</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8146,7 +8171,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8183,14 +8208,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8204,11 +8229,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8245,14 +8270,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8264,8 +8289,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8302,14 +8332,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45635</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8321,8 +8351,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8359,14 +8394,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>44481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8379,7 +8414,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8416,14 +8451,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45737</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8433,6 +8468,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -8473,14 +8513,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8492,13 +8532,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8535,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8556,11 +8591,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8597,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8616,13 +8651,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8659,14 +8689,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45442</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8678,13 +8708,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8721,14 +8746,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,13 +8765,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>22.6</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8783,14 +8803,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8808,7 +8828,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8845,14 +8865,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45789</v>
+        <v>44998</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8864,8 +8884,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8902,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>44991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8923,11 +8948,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8964,14 +8989,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 10526-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>46077.58400462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,11 +9010,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9026,14 +9051,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 10520-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>46077.57923611111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9047,11 +9072,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>19.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9088,14 +9113,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45160</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9107,13 +9132,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9150,14 +9170,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9175,7 +9195,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9212,14 +9232,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45071</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9237,7 +9257,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9274,14 +9294,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9319,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11.4</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9336,14 +9356,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9355,13 +9375,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9398,14 +9413,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9418,7 +9433,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9455,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9474,13 +9489,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9517,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45390</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9538,11 +9548,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9579,14 +9589,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45840</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9600,11 +9610,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9641,14 +9651,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9660,13 +9670,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9703,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45839</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9724,11 +9729,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.1</v>
+        <v>14.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9765,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45842.533125</v>
+        <v>44994</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9786,11 +9791,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9827,14 +9832,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45846</v>
+        <v>45125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9852,7 +9857,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9886,17 +9891,17 @@
       </c>
       <c r="R148" s="2" t="inlineStr"/>
     </row>
-    <row r="149">
+    <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9908,8 +9913,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9942,6 +9952,120 @@
         <v>0</v>
       </c>
       <c r="R149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>A 7385-2023</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>A 8264-2023</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>44974.62284722222</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 9956-2022</t>
+          <t>A 2314-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44621</v>
+        <v>45673</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -964,16 +964,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -988,134 +983,139 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 9956-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9956-2022 artfynd.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9956-2022 karta.png", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9956-2022 FSC-klagomål.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9956-2022 FSC-klagomål mail.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9956-2022 tillsynsbegäran.docx", "A 9956-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9956-2022 tillsynsbegäran mail.docx", "A 9956-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2314-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 2314-2025 artfynd.xlsx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 2314-2025 karta.png", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 2314-2025 FSC-klagomål.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 2314-2025 FSC-klagomål mail.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 2314-2025 tillsynsbegäran.docx", "A 2314-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 2314-2025 tillsynsbegäran mail.docx", "A 2314-2025")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>45104</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,23 +1326,18 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>27.3</v>
+        <v>12.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1366,45 +1361,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45770</v>
+        <v>44405</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1416,8 +1415,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>16.4</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1429,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1441,55 +1445,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 51122-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45104</v>
+        <v>45603</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,11 +1509,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,49 +1549,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 51122-2024 artfynd.xlsx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 51122-2024 karta.png", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 51122-2024 FSC-klagomål.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 51122-2024 FSC-klagomål mail.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 51122-2024 tillsynsbegäran.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 51122-2024 tillsynsbegäran mail.docx", "A 51122-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44753</v>
+        <v>45019</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1590,8 +1599,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>27.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1625,45 +1639,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45632</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,16 +1689,11 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1715,45 +1724,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44405</v>
+        <v>45757.798125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,19 +1780,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1795,59 +1804,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51122-2024</t>
+          <t>A 9803-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45603</v>
+        <v>45716.55532407408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1865,19 +1870,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1892,52 +1897,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Tallbit</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 51122-2024 artfynd.xlsx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9803-2025 artfynd.xlsx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 51122-2024 karta.png", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9803-2025 karta.png", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 51122-2024 FSC-klagomål.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9803-2025 FSC-klagomål.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 51122-2024 FSC-klagomål mail.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9803-2025 FSC-klagomål mail.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 51122-2024 tillsynsbegäran.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9803-2025 tillsynsbegäran.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 51122-2024 tillsynsbegäran mail.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9803-2025 tillsynsbegäran mail.docx", "A 9803-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 9803-2025 prioriterade fågelarter.docx", "A 9803-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45632</v>
+        <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1950,7 +1959,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1984,45 +1993,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 9803-2025</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45716.55532407408</v>
+        <v>45770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,13 +2043,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>16.4</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2052,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2064,59 +2068,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tallbit</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9803-2025 artfynd.xlsx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9803-2025 karta.png", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9803-2025 FSC-klagomål.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9803-2025 FSC-klagomål mail.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9803-2025 tillsynsbegäran.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9803-2025 tillsynsbegäran mail.docx", "A 9803-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 9803-2025 prioriterade fågelarter.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 74421-2021</t>
+          <t>A 29197-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44533</v>
+        <v>44359.34857638889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 29197-2021</t>
+          <t>A 74421-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44359.34857638889</v>
+        <v>44533</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,14 +2622,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30868-2022</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44767</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 62470-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44564</v>
+        <v>44503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,8 +2755,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2793,14 +2798,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62470-2021</t>
+          <t>A 30868-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44503</v>
+        <v>44767</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2812,13 +2817,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2855,14 +2855,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29510-2022</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44753</v>
+        <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2874,13 +2874,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2917,14 +2912,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29513-2022</t>
+          <t>A 29510-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2942,7 +2937,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2979,14 +2974,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32249-2022</t>
+          <t>A 29513-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44781</v>
+        <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3000,11 +2995,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>22.9</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3041,14 +3036,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 51936-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44840</v>
+        <v>44872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3056,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3098,14 +3093,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51936-2022</t>
+          <t>A 38128-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44872</v>
+        <v>44405.37</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3115,6 +3110,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3151,18 +3151,38 @@
         <v>0</v>
       </c>
       <c r="R36" s="2" t="inlineStr"/>
+      <c r="U36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="V36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="W36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="Y36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38128-2021</t>
+          <t>A 25053-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44405.37</v>
+        <v>44729</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,13 +3194,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3213,38 +3228,18 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25053-2022</t>
+          <t>A 25057-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44729</v>
+        <v>44729.31541666666</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3257,7 +3252,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3294,14 +3289,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25057-2022</t>
+          <t>A 69104-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44729.31541666666</v>
+        <v>44530</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3313,8 +3308,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3351,14 +3351,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 69104-2021</t>
+          <t>A 68174-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,11 +3372,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3413,14 +3413,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 68174-2021</t>
+          <t>A 32249-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44526</v>
+        <v>44781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,11 +3434,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>22.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,8 +3608,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3651,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45686</v>
+        <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,8 +3670,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3713,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45071</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,8 +3732,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3760,14 +3775,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45071</v>
+        <v>45390</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3781,7 +3796,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -3822,14 +3837,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45071</v>
+        <v>44994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,11 +3858,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3884,14 +3899,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>44998</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>16.8</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3946,14 +3961,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44364</v>
+        <v>45439</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3981,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4003,14 +4018,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45019</v>
+        <v>45503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4022,13 +4037,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>26.3</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4065,14 +4075,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45632</v>
+        <v>45019</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4084,8 +4094,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>26.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4122,14 +4137,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44998</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4141,13 +4156,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,14 +4194,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4214,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4241,14 +4251,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>44919</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,13 +4270,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4303,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>44858</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4322,13 +4327,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>18</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45784</v>
+        <v>45686</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4384,13 +4384,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4427,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4447,7 +4442,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4484,14 +4479,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,8 +4498,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>11.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4541,14 +4541,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4562,11 +4562,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4603,14 +4603,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4622,13 +4622,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4665,14 +4660,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45635</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,8 +4679,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4722,14 +4722,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45477</v>
+        <v>45131</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,13 +4741,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4784,14 +4779,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45727</v>
+        <v>44739</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,11 +4796,6 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -4846,14 +4836,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45902</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,7 +4861,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4908,14 +4898,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44739</v>
+        <v>44481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4918,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4965,14 +4955,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4984,8 +4974,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5022,14 +5017,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44861</v>
+        <v>45442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5037,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5079,14 +5074,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>44861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5098,13 +5093,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5141,14 +5131,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>44971</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5160,13 +5150,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5203,14 +5188,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5224,11 +5209,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>14.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5265,14 +5250,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,11 +5271,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5327,14 +5312,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5348,11 +5333,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>22.6</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5389,14 +5374,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>44746</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5408,8 +5393,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5446,14 +5436,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45769</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5456,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5503,14 +5493,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,8 +5512,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5560,14 +5555,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5579,13 +5574,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5622,14 +5612,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5647,7 +5637,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>16.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5684,14 +5674,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45071</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5709,7 +5699,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5746,14 +5736,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5771,7 +5761,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5808,14 +5798,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45131</v>
+        <v>45784</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5827,8 +5817,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5865,14 +5860,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45943</v>
+        <v>45160</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5884,13 +5879,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5927,14 +5917,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,13 +5936,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5989,14 +5974,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45635</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6008,13 +5993,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6051,14 +6031,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6070,13 +6050,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6113,14 +6088,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45751.683125</v>
+        <v>45769</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6134,11 +6109,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>10.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6175,14 +6150,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45446</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6195,7 +6170,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6232,14 +6207,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6257,7 +6232,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6294,14 +6269,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45751.683125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6319,7 +6294,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>11.4</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6356,14 +6331,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45737</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6377,11 +6352,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6418,14 +6393,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>44998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6437,8 +6412,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6475,14 +6455,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6495,7 +6475,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6532,14 +6512,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6557,7 +6537,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>18</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6594,14 +6574,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6619,7 +6599,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6656,14 +6636,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45840</v>
+        <v>45446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6675,13 +6655,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6718,14 +6693,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45635</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6738,7 +6713,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6775,14 +6750,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45902</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6771,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -6837,14 +6812,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45842.533125</v>
+        <v>45477</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6862,7 +6837,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>11.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6899,14 +6874,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44919</v>
+        <v>45635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6919,7 +6894,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6956,14 +6931,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45846</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6975,13 +6950,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7018,14 +6988,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7039,11 +7009,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>17.7</v>
+        <v>7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7080,14 +7050,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7099,8 +7069,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7137,14 +7112,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44746</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7158,11 +7133,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7199,14 +7174,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7218,8 +7193,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7256,14 +7236,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7277,11 +7257,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>22.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7318,14 +7298,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,13 +7317,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7380,14 +7355,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45112</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7400,7 +7375,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7437,14 +7412,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,13 +7431,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7499,14 +7469,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45972</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,8 +7488,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7556,14 +7531,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7576,7 +7551,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7613,14 +7588,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7632,8 +7607,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7670,14 +7650,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7695,7 +7675,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7732,14 +7712,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7751,8 +7731,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7789,14 +7774,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45835</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7814,7 +7799,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7851,14 +7836,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45274</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7870,8 +7855,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7908,14 +7898,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45943</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7933,7 +7923,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7970,14 +7960,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,8 +7979,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8027,14 +8022,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45600</v>
+        <v>45727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8052,7 +8047,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8089,14 +8084,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8109,7 +8104,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8146,14 +8141,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8171,7 +8166,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>11.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8208,14 +8203,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8229,11 +8224,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8289,13 +8284,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8332,14 +8322,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,11 +8343,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.5</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8394,14 +8384,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44481</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8413,8 +8403,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>5.2</v>
+        <v>17.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8451,14 +8446,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45737</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,11 +8467,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8513,14 +8508,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45789</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8532,8 +8527,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8570,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45769</v>
+        <v>45840</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8591,11 +8591,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.1</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8632,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45769</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8651,8 +8651,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8689,14 +8694,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45442</v>
+        <v>45839</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8708,8 +8713,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8746,14 +8756,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45842.533125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8765,8 +8775,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8803,14 +8818,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8828,7 +8843,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8865,14 +8880,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44998</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8884,13 +8899,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8927,14 +8937,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44991</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8948,11 +8958,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8989,14 +8999,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10526-2026</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46077.58400462963</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9010,11 +9020,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9051,14 +9061,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10520-2026</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46077.57923611111</v>
+        <v>45972</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9070,13 +9080,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>19.5</v>
+        <v>5.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9113,14 +9118,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45160</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9133,7 +9138,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9170,14 +9175,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45274</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9189,13 +9194,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9232,14 +9232,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45071</v>
+        <v>44364</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9251,13 +9251,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9294,14 +9289,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45503</v>
+        <v>44991</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9432,8 +9427,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9470,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45439</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9527,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45390</v>
+        <v>45835</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9548,11 +9548,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9589,14 +9589,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9610,11 +9610,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9651,14 +9651,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9708,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45600</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9729,11 +9729,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.6</v>
+        <v>2.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9770,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44994</v>
+        <v>45112</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,13 +9789,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9832,14 +9827,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45125</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9857,7 +9852,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9894,14 +9889,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9913,13 +9908,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9956,14 +9946,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 10526-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44971</v>
+        <v>46077.58400462963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9975,8 +9965,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10010,17 +10005,17 @@
       </c>
       <c r="R150" s="2" t="inlineStr"/>
     </row>
-    <row r="151">
+    <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 10520-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>46077.57923611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10032,8 +10027,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10066,6 +10066,68 @@
         <v>0</v>
       </c>
       <c r="R151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>A 10686-2026</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>46078.42652777778</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>FAGERSTA</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45673</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28794-2023</t>
+          <t>A 38127-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45104</v>
+        <v>44405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,8 +1326,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1336,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,56 +1359,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 38127-2021</t>
+          <t>A 15334-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44405</v>
+        <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,23 +1422,23 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>27.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1445,59 +1450,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 38127-2021 artfynd.xlsx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 38127-2021 karta.png", "A 38127-2021")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38127-2021 karta knärot.png", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38127-2021 FSC-klagomål.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38127-2021 FSC-klagomål mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38127-2021 tillsynsbegäran.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38127-2021 tillsynsbegäran mail.docx", "A 38127-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 51122-2024</t>
+          <t>A 58307-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45603</v>
+        <v>45632</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,22 +1510,17 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1539,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1549,45 +1545,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 51122-2024 artfynd.xlsx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 51122-2024 karta.png", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 51122-2024 FSC-klagomål.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 51122-2024 FSC-klagomål mail.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 51122-2024 tillsynsbegäran.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 51122-2024 tillsynsbegäran mail.docx", "A 51122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 15334-2023</t>
+          <t>A 29532-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45019</v>
+        <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1599,13 +1595,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>27.3</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1639,45 +1630,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 15334-2023 artfynd.xlsx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 15334-2023 karta.png", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 15334-2023 FSC-klagomål.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 15334-2023 FSC-klagomål mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 15334-2023 tillsynsbegäran.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 15334-2023 tillsynsbegäran mail.docx", "A 15334-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 58307-2024</t>
+          <t>A 19550-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45632</v>
+        <v>45770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1690,13 +1681,13 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1724,45 +1715,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 58307-2024 artfynd.xlsx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 58307-2024 karta.png", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 58307-2024 FSC-klagomål.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 58307-2024 FSC-klagomål mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 58307-2024 tillsynsbegäran.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 58307-2024 tillsynsbegäran mail.docx", "A 58307-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17613-2025</t>
+          <t>A 28794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45757.798125</v>
+        <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1774,23 +1765,18 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>6.5</v>
+        <v>12.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1804,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1814,45 +1800,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 28794-2023 artfynd.xlsx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 28794-2023 karta.png", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 28794-2023 FSC-klagomål.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 28794-2023 FSC-klagomål mail.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 28794-2023 tillsynsbegäran.docx", "A 28794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 28794-2023 tillsynsbegäran mail.docx", "A 28794-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 28794-2023 prioriterade fågelarter.docx", "A 28794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9803-2025</t>
+          <t>A 51122-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45716.55532407408</v>
+        <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1870,19 +1860,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1897,56 +1887,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tallbit</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9803-2025 artfynd.xlsx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 51122-2024 artfynd.xlsx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9803-2025 karta.png", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 51122-2024 karta.png", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9803-2025 FSC-klagomål.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 51122-2024 FSC-klagomål.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9803-2025 FSC-klagomål mail.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 51122-2024 FSC-klagomål mail.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9803-2025 tillsynsbegäran.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 51122-2024 tillsynsbegäran.docx", "A 51122-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9803-2025 tillsynsbegäran mail.docx", "A 9803-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 9803-2025 prioriterade fågelarter.docx", "A 9803-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 51122-2024 tillsynsbegäran mail.docx", "A 51122-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 29532-2022</t>
+          <t>A 17613-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44753</v>
+        <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,11 +1944,16 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1993,45 +1984,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 29532-2022 artfynd.xlsx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 17613-2025 artfynd.xlsx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 29532-2022 karta.png", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 17613-2025 karta.png", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 29532-2022 FSC-klagomål.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 17613-2025 FSC-klagomål.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 29532-2022 FSC-klagomål mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 17613-2025 FSC-klagomål mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 29532-2022 tillsynsbegäran.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 17613-2025 tillsynsbegäran.docx", "A 17613-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 29532-2022 tillsynsbegäran mail.docx", "A 29532-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 17613-2025 tillsynsbegäran mail.docx", "A 17613-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 19550-2025</t>
+          <t>A 9803-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45770</v>
+        <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2043,8 +2034,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>16.4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2056,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2068,55 +2064,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tallbit</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 19550-2025 artfynd.xlsx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/artfynd/A 9803-2025 artfynd.xlsx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 19550-2025 karta.png", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/kartor/A 9803-2025 karta.png", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 19550-2025 FSC-klagomål.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 9803-2025 FSC-klagomål.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 19550-2025 FSC-klagomål mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 9803-2025 FSC-klagomål mail.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 19550-2025 tillsynsbegäran.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 9803-2025 tillsynsbegäran.docx", "A 9803-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 19550-2025 tillsynsbegäran mail.docx", "A 19550-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 9803-2025 tillsynsbegäran mail.docx", "A 9803-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/fåglar/A 9803-2025 prioriterade fågelarter.docx", "A 9803-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 29197-2021</t>
+          <t>A 74421-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44359.34857638889</v>
+        <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 74421-2021</t>
+          <t>A 29197-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44533</v>
+        <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,14 +2622,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35905-2021</t>
+          <t>A 30868-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44387.65922453703</v>
+        <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 74425-2021</t>
+          <t>A 35905-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44564</v>
+        <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>44503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,14 +2798,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30868-2022</t>
+          <t>A 74425-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44767</v>
+        <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2855,14 +2855,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44710-2022</t>
+          <t>A 29510-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44840</v>
+        <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2874,8 +2874,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2912,14 +2917,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29510-2022</t>
+          <t>A 29513-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2937,7 +2942,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2974,14 +2979,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29513-2022</t>
+          <t>A 32249-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44753</v>
+        <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2995,11 +3000,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3036,14 +3041,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 51936-2022</t>
+          <t>A 44710-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44872</v>
+        <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3056,7 +3061,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3093,14 +3098,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38128-2021</t>
+          <t>A 51936-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44405.37</v>
+        <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3110,11 +3115,6 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3151,38 +3151,18 @@
         <v>0</v>
       </c>
       <c r="R36" s="2" t="inlineStr"/>
-      <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
-      <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25053-2022</t>
+          <t>A 38128-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44729</v>
+        <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3194,8 +3174,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3228,18 +3213,38 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
+      <c r="U37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/knärot/A 38128-2021 karta knärot.png", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="V37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomål/A 38128-2021 FSC-klagomål.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="W37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/klagomålsmail/A 38128-2021 FSC-klagomål mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="X37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsyn/A 38128-2021 tillsynsbegäran.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
+      <c r="Y37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1982/tillsynsmail/A 38128-2021 tillsynsbegäran mail.docx", "A 38128-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25057-2022</t>
+          <t>A 25053-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44729.31541666666</v>
+        <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3252,7 +3257,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3289,14 +3294,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 69104-2021</t>
+          <t>A 25057-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44530</v>
+        <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,13 +3313,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3351,14 +3351,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 68174-2021</t>
+          <t>A 69104-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,11 +3372,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3413,14 +3413,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32249-2022</t>
+          <t>A 68174-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44781</v>
+        <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,11 +3434,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>22.9</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8264-2023</t>
+          <t>A 20909-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44974.62284722222</v>
+        <v>45439</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16544-2025</t>
+          <t>A 15297-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45751.67940972222</v>
+        <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.4</v>
+        <v>26.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3651,14 +3651,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22482-2023</t>
+          <t>A 57855-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45071</v>
+        <v>45247.43503472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,13 +3670,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3713,14 +3708,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22485-2023</t>
+          <t>A 62095-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45071</v>
+        <v>44919</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,13 +3727,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3775,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13721-2024</t>
+          <t>A 48261-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45390</v>
+        <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3794,13 +3784,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3837,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11660-2023</t>
+          <t>A 25972-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44994</v>
+        <v>45804.6315625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3858,11 +3843,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3899,14 +3884,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12125-2023</t>
+          <t>A 42844-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44998</v>
+        <v>45566.62930555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,13 +3903,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3961,14 +3941,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20909-2024</t>
+          <t>A 26165-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45439</v>
+        <v>45805.45321759259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3980,8 +3960,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4018,14 +4003,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31231-2024</t>
+          <t>A 26163-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45503</v>
+        <v>45805.45002314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4037,8 +4022,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4075,14 +4065,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15297-2023</t>
+          <t>A 26164-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45019</v>
+        <v>45805.45237268518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4096,11 +4086,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>26.3</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4137,14 +4127,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57855-2023</t>
+          <t>A 21679-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45247.43503472222</v>
+        <v>45442</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4157,7 +4147,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4194,14 +4184,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56699-2024</t>
+          <t>A 26652-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45627.7980787037</v>
+        <v>45810.38774305556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4213,8 +4203,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>22.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4251,14 +4246,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62095-2022</t>
+          <t>A 30356-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44919</v>
+        <v>45491.31465277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4270,8 +4265,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4308,14 +4308,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48261-2022</t>
+          <t>A 39015-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44858</v>
+        <v>45888.36605324074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4486-2025</t>
+          <t>A 8264-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45686</v>
+        <v>44974.62284722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51586-2023</t>
+          <t>A 29072-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45222.46934027778</v>
+        <v>45821.51378472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4441,8 +4441,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4479,14 +4484,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10820-2025</t>
+          <t>A 29074-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45722.55008101852</v>
+        <v>45821.51690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4509,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4541,14 +4546,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 18463-2025</t>
+          <t>A 29075-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45762.69976851852</v>
+        <v>45821.51886574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4571,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4603,14 +4608,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42844-2024</t>
+          <t>A 29073-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45566.62930555556</v>
+        <v>45821.51579861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4622,8 +4627,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4660,14 +4670,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7380-2025</t>
+          <t>A 29348-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45705.32150462963</v>
+        <v>45824.51702546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4681,11 +4691,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4722,14 +4732,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33785-2023</t>
+          <t>A 16544-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45131</v>
+        <v>45751.67940972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,8 +4751,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4779,14 +4794,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26509-2022</t>
+          <t>A 29725-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44739</v>
+        <v>45825.57805555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,8 +4813,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4836,14 +4856,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14590-2025</t>
+          <t>A 22482-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45742.33019675926</v>
+        <v>45071</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4857,11 +4877,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4898,14 +4918,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56739-2021</t>
+          <t>A 22485-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44481</v>
+        <v>45071</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4917,8 +4937,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4955,14 +4980,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15812-2025</t>
+          <t>A 41644-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45748.66613425926</v>
+        <v>45902</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4976,11 +5001,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5017,14 +5042,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21679-2024</t>
+          <t>A 28207-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45442</v>
+        <v>45477</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,8 +5061,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5074,14 +5104,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49311-2022</t>
+          <t>A 31775-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44861</v>
+        <v>45834.51887731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,8 +5123,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>11.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5131,14 +5166,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7385-2023</t>
+          <t>A 31776-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44971</v>
+        <v>45834.51931712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5150,8 +5185,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5188,14 +5228,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19213-2025</t>
+          <t>A 31768-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45769.43887731482</v>
+        <v>45834.50034722222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5207,13 +5247,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>14.6</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5250,14 +5285,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30356-2024</t>
+          <t>A 11660-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45491.31465277778</v>
+        <v>44994</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5271,11 +5306,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5312,14 +5347,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16547-2025</t>
+          <t>A 32001-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45751.68385416667</v>
+        <v>45835.37936342593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5372,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5374,14 +5409,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28249-2022</t>
+          <t>A 33238-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44746</v>
+        <v>45840.64806712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5395,11 +5430,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5436,14 +5471,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19153-2025</t>
+          <t>A 33232-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45769</v>
+        <v>45840</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5455,8 +5490,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5493,14 +5533,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33007-2023</t>
+          <t>A 33236-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45125</v>
+        <v>45840.64615740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5558,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5555,14 +5595,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56694-2024</t>
+          <t>A 32805-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45627.75526620371</v>
+        <v>45839</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5574,8 +5614,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5612,14 +5657,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19888-2025</t>
+          <t>A 12125-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45771.57357638889</v>
+        <v>44998</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5633,11 +5678,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>16.8</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5674,14 +5719,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22484-2023</t>
+          <t>A 33865-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45071</v>
+        <v>45842.533125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5744,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5736,14 +5781,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17612-2025</t>
+          <t>A 34374-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45757.79734953704</v>
+        <v>45846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5761,7 +5806,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5798,14 +5843,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22025-2025</t>
+          <t>A 31231-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45784</v>
+        <v>45503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5815,11 +5860,6 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>FAGERSTA</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5860,14 +5900,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37955-2023</t>
+          <t>A 28425-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45160</v>
+        <v>45819.37296296296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5880,7 +5920,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5917,14 +5957,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58310-2024</t>
+          <t>A 46309-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45632</v>
+        <v>45925.43568287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5977,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5974,14 +6014,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58464-2024</t>
+          <t>A 46346-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45635</v>
+        <v>45925.47679398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +6034,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6031,14 +6071,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30813-2022</t>
+          <t>A 46359-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44764.96467592593</v>
+        <v>45925.49538194444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6051,7 +6091,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6088,14 +6128,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19156-2025</t>
+          <t>A 10820-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45769</v>
+        <v>45722.55008101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,11 +6149,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6150,14 +6190,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39015-2025</t>
+          <t>A 7380-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45888.36605324074</v>
+        <v>45705.32150462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,8 +6209,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>0.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6207,14 +6252,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16545-2025</t>
+          <t>A 33785-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45751.68105324074</v>
+        <v>45131</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,13 +6271,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6269,14 +6309,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16546-2025</t>
+          <t>A 26509-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45751.683125</v>
+        <v>44739</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,13 +6328,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6331,14 +6366,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13697-2025</t>
+          <t>A 15812-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45737</v>
+        <v>45748.66613425926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6352,11 +6387,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6393,14 +6428,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12121-2023</t>
+          <t>A 49311-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44998</v>
+        <v>44861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6412,13 +6447,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6455,14 +6485,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54804-2023</t>
+          <t>A 7385-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45236.51261574074</v>
+        <v>44971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6475,7 +6505,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6512,14 +6542,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22118-2025</t>
+          <t>A 28249-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45785.51457175926</v>
+        <v>44746</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6533,11 +6563,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6574,14 +6604,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22117-2025</t>
+          <t>A 50226-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45785.51381944444</v>
+        <v>45943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6595,11 +6625,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6636,14 +6666,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22323-2024</t>
+          <t>A 22484-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45446</v>
+        <v>45071</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,8 +6685,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6693,14 +6728,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56704-2024</t>
+          <t>A 17612-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45627.83027777778</v>
+        <v>45757.79734953704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,8 +6747,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>7.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6750,14 +6790,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41644-2025</t>
+          <t>A 51836-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45902</v>
+        <v>45952.33346064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6775,7 +6815,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6812,14 +6852,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28207-2024</t>
+          <t>A 51782-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45477</v>
+        <v>45951.66190972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,11 +6873,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.4</v>
+        <v>17.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6874,14 +6914,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58594-2024</t>
+          <t>A 16545-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45635</v>
+        <v>45751.68105324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6893,8 +6933,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6931,14 +6976,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39157-2024</t>
+          <t>A 16546-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45548.63049768518</v>
+        <v>45751.683125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6950,8 +6995,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6988,14 +7038,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25972-2025</t>
+          <t>A 54804-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45804.6315625</v>
+        <v>45236.51261574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7007,13 +7057,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7050,14 +7095,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26165-2025</t>
+          <t>A 22323-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45805.45321759259</v>
+        <v>45446</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7069,13 +7114,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7112,14 +7152,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26163-2025</t>
+          <t>A 54912-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45805.45002314815</v>
+        <v>45967.38167824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7133,11 +7173,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7174,14 +7214,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26164-2025</t>
+          <t>A 55794-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45805.45237268518</v>
+        <v>45972</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7193,13 +7233,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7236,14 +7271,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26652-2025</t>
+          <t>A 56739-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45810.38774305556</v>
+        <v>44481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7255,13 +7290,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>22.6</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7298,14 +7328,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46309-2025</t>
+          <t>A 57405-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45925.43568287037</v>
+        <v>45980.44159722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7317,8 +7347,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7355,14 +7390,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46346-2025</t>
+          <t>A 33007-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45925.47679398148</v>
+        <v>45125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7374,8 +7409,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7412,14 +7452,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46359-2025</t>
+          <t>A 56694-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45925.49538194444</v>
+        <v>45627.75526620371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7432,7 +7472,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7469,14 +7509,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33357-2023</t>
+          <t>A 58206-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45128.4874537037</v>
+        <v>45984.72953703703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7488,13 +7528,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7531,14 +7566,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45390-2023</t>
+          <t>A 19888-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45193.92085648148</v>
+        <v>45771.57357638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7550,8 +7585,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7588,14 +7628,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29072-2025</t>
+          <t>A 37955-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45821.51378472222</v>
+        <v>45160</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7607,13 +7647,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7650,14 +7685,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29074-2025</t>
+          <t>A 32004-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45821.51690972222</v>
+        <v>45835</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7675,7 +7710,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7712,14 +7747,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29075-2025</t>
+          <t>A 58464-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45821.51886574074</v>
+        <v>45635</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7731,13 +7766,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7774,14 +7804,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29073-2025</t>
+          <t>A 60374-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45821.51579861111</v>
+        <v>45995.36177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7795,11 +7825,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7836,14 +7866,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29348-2025</t>
+          <t>A 19156-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45824.51702546296</v>
+        <v>45769</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7857,11 +7887,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.1</v>
+        <v>10.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7898,14 +7928,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50226-2025</t>
+          <t>A 3553-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45943</v>
+        <v>46042.65331018518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7917,13 +7947,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7960,14 +7985,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29725-2025</t>
+          <t>A 13697-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45825.57805555555</v>
+        <v>45737</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7981,11 +8006,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8022,14 +8047,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11583-2025</t>
+          <t>A 33357-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45727</v>
+        <v>45128.4874537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8043,11 +8068,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8084,14 +8109,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12913-2025</t>
+          <t>A 63305-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45733.83596064815</v>
+        <v>46010.6115162037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,8 +8128,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8141,14 +8171,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31775-2025</t>
+          <t>A 45390-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45834.51887731482</v>
+        <v>45193.92085648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8160,13 +8190,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8203,14 +8228,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31776-2025</t>
+          <t>A 11583-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45834.51931712963</v>
+        <v>45727</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,11 +8249,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8265,14 +8290,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31768-2025</t>
+          <t>A 12913-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45834.50034722222</v>
+        <v>45733.83596064815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8285,7 +8310,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8322,14 +8347,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51836-2025</t>
+          <t>A 22590-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45952.33346064815</v>
+        <v>45789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,13 +8366,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8384,14 +8404,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51782-2025</t>
+          <t>A 13495-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45951.66190972222</v>
+        <v>45736.44006944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8405,11 +8425,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>17.7</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8446,14 +8466,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32001-2025</t>
+          <t>A 56698-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45835.37936342593</v>
+        <v>45627.79015046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8465,13 +8485,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8508,14 +8523,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33238-2025</t>
+          <t>A 63480-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45840.64806712963</v>
+        <v>45274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8527,13 +8542,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8570,14 +8580,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 33232-2025</t>
+          <t>A 30503-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45840</v>
+        <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8589,13 +8599,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8632,14 +8637,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 33236-2025</t>
+          <t>A 10526-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45840.64615740741</v>
+        <v>46077.58400462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8653,11 +8658,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8694,14 +8699,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32805-2025</t>
+          <t>A 10520-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45839</v>
+        <v>46077.57923611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8715,11 +8720,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>19.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8756,14 +8761,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33865-2025</t>
+          <t>A 10686-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45842.533125</v>
+        <v>46078.42652777778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8777,11 +8782,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>18.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8818,14 +8823,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 34374-2025</t>
+          <t>A 10851-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45846</v>
+        <v>44991</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8839,11 +8844,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8880,14 +8885,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28425-2025</t>
+          <t>A 4264-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45819.37296296296</v>
+        <v>44953.56076388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8900,7 +8905,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8937,14 +8942,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13495-2025</t>
+          <t>A 50209-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45736.44006944444</v>
+        <v>45600</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8958,11 +8963,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8999,14 +9004,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54912-2025</t>
+          <t>A 30630-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45967.38167824074</v>
+        <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9018,13 +9023,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9061,14 +9061,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55794-2025</t>
+          <t>A 13721-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45972</v>
+        <v>45390</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9080,8 +9080,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9118,14 +9123,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56698-2024</t>
+          <t>A 56699-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45627.79015046296</v>
+        <v>45627.7980787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9138,7 +9143,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9175,14 +9180,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 63480-2023</t>
+          <t>A 4486-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45274</v>
+        <v>45686</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9195,7 +9200,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9232,14 +9237,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30503-2021</t>
+          <t>A 51586-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44364</v>
+        <v>45222.46934027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9252,7 +9257,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9289,14 +9294,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 57405-2025</t>
+          <t>A 18463-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45980.44159722222</v>
+        <v>45762.69976851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9314,7 +9319,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9351,14 +9356,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58206-2025</t>
+          <t>A 14590-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45984.72953703703</v>
+        <v>45742.33019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9370,8 +9375,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9408,14 +9418,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10851-2023</t>
+          <t>A 19213-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44991</v>
+        <v>45769.43887731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9443,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>14.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9470,14 +9480,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4264-2023</t>
+          <t>A 16547-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44953.56076388889</v>
+        <v>45751.68385416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9489,8 +9499,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9527,14 +9542,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32004-2025</t>
+          <t>A 19153-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45835</v>
+        <v>45769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9546,13 +9561,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9589,14 +9599,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60374-2025</t>
+          <t>A 22025-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45995.36177083333</v>
+        <v>45784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9614,7 +9624,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9651,14 +9661,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3553-2026</t>
+          <t>A 58310-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46042.65331018518</v>
+        <v>45632</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9681,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9708,14 +9718,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50209-2024</t>
+          <t>A 30813-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45600</v>
+        <v>44764.96467592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9727,13 +9737,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9770,14 +9775,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30630-2023</t>
+          <t>A 12121-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45112</v>
+        <v>44998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,8 +9794,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9827,14 +9837,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63305-2025</t>
+          <t>A 22118-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46010.6115162037</v>
+        <v>45785.51457175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9852,7 +9862,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>18</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9889,14 +9899,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22590-2025</t>
+          <t>A 22117-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45789</v>
+        <v>45785.51381944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9908,8 +9918,13 @@
           <t>FAGERSTA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9946,14 +9961,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10526-2026</t>
+          <t>A 56704-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46077.58400462963</v>
+        <v>45627.83027777778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9965,13 +9980,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10008,14 +10018,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10520-2026</t>
+          <t>A 58594-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46077.57923611111</v>
+        <v>45635</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10027,13 +10037,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>19.5</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10070,14 +10075,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10686-2026</t>
+          <t>A 39157-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46078.42652777778</v>
+        <v>45548.63049768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10089,13 +10094,8 @@
           <t>FAGERSTA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>18.6</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -575,7 +575,7 @@
         <v>45733</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45758</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44747</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45947.40607638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45673</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>46034.58318287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45632</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44753</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>45603</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45757.798125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45716.55532407408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44359.34857638889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44533</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44559.58675925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44767</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44387.65922453703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44753</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44753</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44781</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44872</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44405.37</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44729</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44729.31541666666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44530</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44526</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44422</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>45439</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>45019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>45247.43503472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44919</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>45804.6315625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45566.62930555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45805.45321759259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45805.45002314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45805.45237268518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45442</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45810.38774305556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>45491.31465277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45888.36605324074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44974.62284722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45821.51378472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45821.51690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45821.51886574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45821.51579861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45824.51702546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45751.67940972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45071</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45071</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45902</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45477</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45834.51887731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45834.51931712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45834.50034722222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44994</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45835.37936342593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45840.64806712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>45840</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45840.64615740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45839</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44998</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>45842.533125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>45846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>45503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45819.37296296296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45925.43568287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45925.47679398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>45925.49538194444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45722.55008101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45705.32150462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45131</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44739</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45748.66613425926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44746</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45071</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45757.79734953704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45952.33346064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45951.66190972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>45751.68105324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>45751.683125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45236.51261574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45446</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45967.38167824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45972</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>45980.44159722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45627.75526620371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>45984.72953703703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45771.57357638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45160</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>45835</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45635</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45995.36177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45769</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>46042.65331018518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>45737</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45128.4874537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>46010.6115162037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>45193.92085648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>45727</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45733.83596064815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>45789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45736.44006944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45627.79015046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>46077.58400462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>46077.57923611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>46078.42652777778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44991</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953.56076388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45600</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45390</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45627.7980787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45686</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45222.46934027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45762.69976851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>45742.33019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>45769.43887731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45751.68385416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45632</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44764.96467592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45785.51457175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>45785.51381944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45627.83027777778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45635</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45548.63049768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
